--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>287600</v>
+        <v>307200</v>
       </c>
       <c r="E8" s="3">
-        <v>233200</v>
+        <v>529500</v>
       </c>
       <c r="F8" s="3">
-        <v>253200</v>
+        <v>237100</v>
       </c>
       <c r="G8" s="3">
-        <v>204200</v>
+        <v>257400</v>
       </c>
       <c r="H8" s="3">
-        <v>184100</v>
+        <v>207600</v>
       </c>
       <c r="I8" s="3">
-        <v>106600</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+        <v>187200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>257300</v>
+        <v>268900</v>
       </c>
       <c r="E9" s="3">
-        <v>203100</v>
+        <v>468100</v>
       </c>
       <c r="F9" s="3">
-        <v>219600</v>
+        <v>206500</v>
       </c>
       <c r="G9" s="3">
-        <v>177500</v>
+        <v>223300</v>
       </c>
       <c r="H9" s="3">
-        <v>160000</v>
+        <v>180500</v>
       </c>
       <c r="I9" s="3">
-        <v>101400</v>
+        <v>162600</v>
       </c>
       <c r="J9" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K9" s="3">
         <v>590400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30300</v>
+        <v>38400</v>
       </c>
       <c r="E10" s="3">
-        <v>30100</v>
+        <v>61500</v>
       </c>
       <c r="F10" s="3">
-        <v>33500</v>
+        <v>30600</v>
       </c>
       <c r="G10" s="3">
-        <v>26700</v>
+        <v>34100</v>
       </c>
       <c r="H10" s="3">
-        <v>24200</v>
+        <v>27100</v>
       </c>
       <c r="I10" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12400</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="3">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="F12" s="3">
-        <v>6100</v>
+        <v>8700</v>
       </c>
       <c r="G12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="H12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>22000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,16 +919,19 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>14300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24400</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,19 +964,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>365700</v>
+        <v>330800</v>
       </c>
       <c r="E17" s="3">
-        <v>250300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>626400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>254500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -958,28 +985,31 @@
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
-        <v>137200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>139500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-78100</v>
+        <v>-23600</v>
       </c>
       <c r="E18" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>-96900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-17400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -987,17 +1017,20 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-31100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,48 +1042,52 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1058,86 +1095,95 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-15100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
-        <v>500</v>
-      </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81000</v>
+        <v>-22700</v>
       </c>
       <c r="E23" s="3">
-        <v>-17500</v>
+        <v>-98700</v>
       </c>
       <c r="F23" s="3">
-        <v>-14500</v>
+        <v>-17800</v>
       </c>
       <c r="G23" s="3">
-        <v>-16100</v>
+        <v>-14800</v>
       </c>
       <c r="H23" s="3">
-        <v>-18100</v>
+        <v>-16400</v>
       </c>
       <c r="I23" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-1800</v>
       </c>
       <c r="G24" s="3">
         <v>-1800</v>
@@ -1149,13 +1195,16 @@
         <v>-1900</v>
       </c>
       <c r="J24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,19 +1232,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-78000</v>
+        <v>-19100</v>
       </c>
       <c r="E26" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
+        <v>-92600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-14700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
@@ -1203,28 +1255,31 @@
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-28500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-77900</v>
+        <v>-19100</v>
       </c>
       <c r="E27" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
+        <v>-172200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-94500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
@@ -1232,17 +1287,20 @@
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-80200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,48 +1424,54 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-77900</v>
+        <v>-19100</v>
       </c>
       <c r="E33" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
+        <v>-172200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-94500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
@@ -1406,17 +1479,20 @@
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-80200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,19 +1520,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-77900</v>
+        <v>-19100</v>
       </c>
       <c r="E35" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
+        <v>-172200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-94500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
@@ -1464,51 +1543,57 @@
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-80200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>428900</v>
+        <v>296800</v>
       </c>
       <c r="E41" s="3">
-        <v>101200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+        <v>436100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>102900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -1562,19 +1649,22 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7700</v>
+        <v>59500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+        <v>7800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1591,19 +1681,22 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76500</v>
+        <v>91900</v>
       </c>
       <c r="E43" s="3">
-        <v>70500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+        <v>77800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>71700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1620,19 +1713,22 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>54300</v>
+        <v>78400</v>
       </c>
       <c r="E44" s="3">
-        <v>48900</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+        <v>55200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>49700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86600</v>
+        <v>128900</v>
       </c>
       <c r="E45" s="3">
-        <v>67600</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>88000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>68700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1678,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>653900</v>
+        <v>655400</v>
       </c>
       <c r="E46" s="3">
-        <v>288200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+        <v>664900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>293100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
@@ -1707,19 +1809,22 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17600</v>
+        <v>32100</v>
       </c>
       <c r="E47" s="3">
-        <v>16100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+        <v>17900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>16400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -1736,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12100</v>
+        <v>13400</v>
       </c>
       <c r="E48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+        <v>12300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1765,19 +1873,22 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>468800</v>
+        <v>463900</v>
       </c>
       <c r="E49" s="3">
-        <v>476300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+        <v>476700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>484300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15100</v>
+        <v>22600</v>
       </c>
       <c r="E52" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+        <v>15400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1167500</v>
+        <v>1187600</v>
       </c>
       <c r="E54" s="3">
-        <v>793200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+        <v>1187100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>806500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E57" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+        <v>7600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -1994,19 +2125,22 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32200</v>
+        <v>22200</v>
       </c>
       <c r="E58" s="3">
-        <v>68100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>69200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2023,19 +2157,22 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84200</v>
+        <v>91400</v>
       </c>
       <c r="E59" s="3">
-        <v>91400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+        <v>85600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>93000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2052,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>123800</v>
+        <v>121300</v>
       </c>
       <c r="E60" s="3">
-        <v>166300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+        <v>125900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>169000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
@@ -2081,19 +2221,22 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
-        <v>3400</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57000</v>
+        <v>51300</v>
       </c>
       <c r="E62" s="3">
-        <v>49700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+        <v>57900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>50500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>183000</v>
+        <v>173500</v>
       </c>
       <c r="E66" s="3">
-        <v>219300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+        <v>186000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>223000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1469400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1494000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
-        <v>-895700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-910700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>984500</v>
+        <v>1014100</v>
       </c>
       <c r="E76" s="3">
-        <v>-895400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+        <v>1001000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-910500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,53 +2747,59 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-77900</v>
+        <v>-19100</v>
       </c>
       <c r="E81" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
+        <v>-172200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-94500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
@@ -2612,17 +2807,20 @@
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-80200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,19 +2832,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>13600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,19 +3022,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-47400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,20 +3070,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3164,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>13600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +3338,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-6900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -3124,20 +3370,23 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3153,19 +3402,22 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-40200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
@@ -3180,6 +3432,9 @@
         <v>4</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>307200</v>
+        <v>384300</v>
       </c>
       <c r="E8" s="3">
-        <v>529500</v>
+        <v>309600</v>
       </c>
       <c r="F8" s="3">
-        <v>237100</v>
+        <v>533600</v>
       </c>
       <c r="G8" s="3">
-        <v>257400</v>
+        <v>238900</v>
       </c>
       <c r="H8" s="3">
-        <v>207600</v>
+        <v>259400</v>
       </c>
       <c r="I8" s="3">
-        <v>187200</v>
+        <v>209200</v>
       </c>
       <c r="J8" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K8" s="3">
         <v>108400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>268900</v>
+        <v>329800</v>
       </c>
       <c r="E9" s="3">
-        <v>468100</v>
+        <v>270900</v>
       </c>
       <c r="F9" s="3">
-        <v>206500</v>
+        <v>471600</v>
       </c>
       <c r="G9" s="3">
-        <v>223300</v>
+        <v>208000</v>
       </c>
       <c r="H9" s="3">
-        <v>180500</v>
+        <v>225000</v>
       </c>
       <c r="I9" s="3">
-        <v>162600</v>
+        <v>181900</v>
       </c>
       <c r="J9" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K9" s="3">
         <v>103100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>590400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38400</v>
+        <v>54500</v>
       </c>
       <c r="E10" s="3">
-        <v>61500</v>
+        <v>38700</v>
       </c>
       <c r="F10" s="3">
-        <v>30600</v>
+        <v>61900</v>
       </c>
       <c r="G10" s="3">
-        <v>34100</v>
+        <v>30900</v>
       </c>
       <c r="H10" s="3">
-        <v>27100</v>
+        <v>34300</v>
       </c>
       <c r="I10" s="3">
-        <v>24600</v>
+        <v>27300</v>
       </c>
       <c r="J10" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
-        <v>21000</v>
-      </c>
       <c r="F12" s="3">
-        <v>8700</v>
+        <v>21200</v>
       </c>
       <c r="G12" s="3">
-        <v>6200</v>
+        <v>8800</v>
       </c>
       <c r="H12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
-        <v>5200</v>
-      </c>
       <c r="J12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,19 +941,22 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E15" s="3">
-        <v>24400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>14400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>24600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -954,8 +976,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,22 +990,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>330800</v>
+        <v>404100</v>
       </c>
       <c r="E17" s="3">
-        <v>626400</v>
+        <v>333300</v>
       </c>
       <c r="F17" s="3">
-        <v>254500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
+        <v>631200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>256500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
@@ -988,31 +1014,34 @@
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>139500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23600</v>
+        <v>-19900</v>
       </c>
       <c r="E18" s="3">
-        <v>-96900</v>
+        <v>-23700</v>
       </c>
       <c r="F18" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>-97600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-17600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1020,17 +1049,20 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-31100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1075,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,125 +1122,137 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22700</v>
+        <v>-28200</v>
       </c>
       <c r="E23" s="3">
-        <v>-98700</v>
+        <v>-22800</v>
       </c>
       <c r="F23" s="3">
-        <v>-17800</v>
+        <v>-99400</v>
       </c>
       <c r="G23" s="3">
-        <v>-14800</v>
+        <v>-17900</v>
       </c>
       <c r="H23" s="3">
-        <v>-16400</v>
+        <v>-14900</v>
       </c>
       <c r="I23" s="3">
-        <v>-18400</v>
+        <v>-16500</v>
       </c>
       <c r="J23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-30400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G24" s="3">
-        <v>-1800</v>
+        <v>-3100</v>
       </c>
       <c r="H24" s="3">
         <v>-1800</v>
       </c>
       <c r="I24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J24" s="3">
         <v>-1900</v>
       </c>
       <c r="K24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L24" s="3">
         <v>-4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,22 +1283,25 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19100</v>
+        <v>-15300</v>
       </c>
       <c r="E26" s="3">
-        <v>-92600</v>
+        <v>-19200</v>
       </c>
       <c r="F26" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
+        <v>-93300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-14900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
@@ -1258,31 +1309,34 @@
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>-28500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19100</v>
+        <v>-16300</v>
       </c>
       <c r="E27" s="3">
-        <v>-172200</v>
+        <v>-19200</v>
       </c>
       <c r="F27" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
+        <v>-173500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-95200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
@@ -1290,17 +1344,20 @@
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>-80200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,54 +1493,60 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19100</v>
+        <v>-16300</v>
       </c>
       <c r="E33" s="3">
-        <v>-172200</v>
+        <v>-19200</v>
       </c>
       <c r="F33" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
+        <v>-173500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-95200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
@@ -1482,17 +1554,20 @@
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-80200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,22 +1598,25 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19100</v>
+        <v>-16300</v>
       </c>
       <c r="E35" s="3">
-        <v>-172200</v>
+        <v>-19200</v>
       </c>
       <c r="F35" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
+        <v>-173500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-95200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
@@ -1546,54 +1624,60 @@
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-80200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1705,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>296800</v>
+        <v>214000</v>
       </c>
       <c r="E41" s="3">
-        <v>436100</v>
+        <v>299100</v>
       </c>
       <c r="F41" s="3">
-        <v>102900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+        <v>439400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>103700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1652,22 +1738,25 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59500</v>
+        <v>80500</v>
       </c>
       <c r="E42" s="3">
-        <v>7800</v>
+        <v>60000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>7900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1684,22 +1773,25 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91900</v>
+        <v>128600</v>
       </c>
       <c r="E43" s="3">
-        <v>77800</v>
+        <v>92600</v>
       </c>
       <c r="F43" s="3">
-        <v>71700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>78400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>72200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1716,22 +1808,25 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>78400</v>
+        <v>75500</v>
       </c>
       <c r="E44" s="3">
-        <v>55200</v>
+        <v>79000</v>
       </c>
       <c r="F44" s="3">
-        <v>49700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>55600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>50100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1748,22 +1843,25 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128900</v>
+        <v>156200</v>
       </c>
       <c r="E45" s="3">
-        <v>88000</v>
+        <v>129800</v>
       </c>
       <c r="F45" s="3">
-        <v>68700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+        <v>88700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>69300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1780,22 +1878,25 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>655400</v>
+        <v>654800</v>
       </c>
       <c r="E46" s="3">
-        <v>664900</v>
+        <v>660400</v>
       </c>
       <c r="F46" s="3">
-        <v>293100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+        <v>670000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>295300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -1812,22 +1913,25 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32100</v>
+        <v>38100</v>
       </c>
       <c r="E47" s="3">
-        <v>17900</v>
+        <v>32400</v>
       </c>
       <c r="F47" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+        <v>18000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>16500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1844,22 +1948,25 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13400</v>
+        <v>27400</v>
       </c>
       <c r="E48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F48" s="3">
         <v>12300</v>
       </c>
-      <c r="F48" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>10300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -1876,22 +1983,25 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>463900</v>
+        <v>454200</v>
       </c>
       <c r="E49" s="3">
-        <v>476700</v>
+        <v>467500</v>
       </c>
       <c r="F49" s="3">
-        <v>484300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+        <v>480300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>488000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2088,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22600</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>15400</v>
+        <v>22800</v>
       </c>
       <c r="F52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2158,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1187600</v>
+        <v>1183600</v>
       </c>
       <c r="E54" s="3">
-        <v>1187100</v>
+        <v>1196700</v>
       </c>
       <c r="F54" s="3">
-        <v>806500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+        <v>1196200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>812700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2225,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,22 +2258,25 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22200</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
-        <v>32800</v>
+        <v>22400</v>
       </c>
       <c r="F58" s="3">
-        <v>69200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+        <v>33000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>69700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2160,22 +2293,25 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91400</v>
+        <v>108600</v>
       </c>
       <c r="E59" s="3">
-        <v>85600</v>
+        <v>92100</v>
       </c>
       <c r="F59" s="3">
-        <v>93000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+        <v>86300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>93700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -2192,22 +2328,25 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121300</v>
+        <v>130100</v>
       </c>
       <c r="E60" s="3">
-        <v>125900</v>
+        <v>122200</v>
       </c>
       <c r="F60" s="3">
-        <v>169000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
+        <v>126900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>170300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -2224,23 +2363,26 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,22 +2398,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51300</v>
+        <v>40600</v>
       </c>
       <c r="E62" s="3">
-        <v>57900</v>
+        <v>51700</v>
       </c>
       <c r="F62" s="3">
-        <v>50500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+        <v>58400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>50900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2538,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173500</v>
+        <v>170700</v>
       </c>
       <c r="E66" s="3">
-        <v>186000</v>
+        <v>174800</v>
       </c>
       <c r="F66" s="3">
-        <v>223000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
+        <v>187500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>224700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2506,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1494000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1505400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2569,11 +2742,11 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
-        <v>-910700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-917700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2868,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1014100</v>
+        <v>1012900</v>
       </c>
       <c r="E76" s="3">
-        <v>1001000</v>
+        <v>1021800</v>
       </c>
       <c r="F76" s="3">
-        <v>-910500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
+        <v>1008700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-917400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,59 +2938,65 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19100</v>
+        <v>-16300</v>
       </c>
       <c r="E81" s="3">
-        <v>-172200</v>
+        <v>-19200</v>
       </c>
       <c r="F81" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
+        <v>-173500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-95200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
@@ -2810,17 +3004,20 @@
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-80200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3030,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,31 +3238,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-47400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3290,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3393,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,31 +3583,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3373,31 +3618,34 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>384300</v>
+        <v>358900</v>
       </c>
       <c r="E8" s="3">
-        <v>309600</v>
+        <v>289200</v>
       </c>
       <c r="F8" s="3">
-        <v>533600</v>
+        <v>498400</v>
       </c>
       <c r="G8" s="3">
-        <v>238900</v>
+        <v>223200</v>
       </c>
       <c r="H8" s="3">
-        <v>259400</v>
+        <v>242300</v>
       </c>
       <c r="I8" s="3">
-        <v>209200</v>
+        <v>195400</v>
       </c>
       <c r="J8" s="3">
-        <v>188600</v>
+        <v>176200</v>
       </c>
       <c r="K8" s="3">
         <v>108400</v>
@@ -760,25 +760,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>329800</v>
+        <v>308100</v>
       </c>
       <c r="E9" s="3">
-        <v>270900</v>
+        <v>253100</v>
       </c>
       <c r="F9" s="3">
-        <v>471600</v>
+        <v>440500</v>
       </c>
       <c r="G9" s="3">
-        <v>208000</v>
+        <v>194300</v>
       </c>
       <c r="H9" s="3">
-        <v>225000</v>
+        <v>210200</v>
       </c>
       <c r="I9" s="3">
-        <v>181900</v>
+        <v>169900</v>
       </c>
       <c r="J9" s="3">
-        <v>163900</v>
+        <v>153100</v>
       </c>
       <c r="K9" s="3">
         <v>103100</v>
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>54500</v>
+        <v>50900</v>
       </c>
       <c r="E10" s="3">
-        <v>38700</v>
+        <v>36100</v>
       </c>
       <c r="F10" s="3">
-        <v>61900</v>
+        <v>57800</v>
       </c>
       <c r="G10" s="3">
-        <v>30900</v>
+        <v>28800</v>
       </c>
       <c r="H10" s="3">
-        <v>34300</v>
+        <v>32100</v>
       </c>
       <c r="I10" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="J10" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="K10" s="3">
         <v>5200</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="F12" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="G12" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I12" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J12" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
@@ -915,25 +915,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -949,14 +949,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>14200</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="F15" s="3">
-        <v>24600</v>
+        <v>22900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -997,16 +997,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>404100</v>
+        <v>379900</v>
       </c>
       <c r="E17" s="3">
-        <v>333300</v>
+        <v>311300</v>
       </c>
       <c r="F17" s="3">
-        <v>631200</v>
+        <v>589600</v>
       </c>
       <c r="G17" s="3">
-        <v>256500</v>
+        <v>239600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
@@ -1032,16 +1032,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19900</v>
+        <v>-21000</v>
       </c>
       <c r="E18" s="3">
-        <v>-23700</v>
+        <v>-22200</v>
       </c>
       <c r="F18" s="3">
-        <v>-97600</v>
+        <v>-91200</v>
       </c>
       <c r="G18" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1082,16 +1082,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8100</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1155,10 +1155,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
@@ -1170,7 +1170,7 @@
         <v>700</v>
       </c>
       <c r="J22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
@@ -1187,25 +1187,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28200</v>
+        <v>-26400</v>
       </c>
       <c r="E23" s="3">
-        <v>-22800</v>
+        <v>-21300</v>
       </c>
       <c r="F23" s="3">
-        <v>-99400</v>
+        <v>-92900</v>
       </c>
       <c r="G23" s="3">
-        <v>-17900</v>
+        <v>-16700</v>
       </c>
       <c r="H23" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="I23" s="3">
-        <v>-16500</v>
+        <v>-15400</v>
       </c>
       <c r="J23" s="3">
-        <v>-18500</v>
+        <v>-17300</v>
       </c>
       <c r="K23" s="3">
         <v>-30400</v>
@@ -1222,25 +1222,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-13000</v>
+        <v>-12100</v>
       </c>
       <c r="E24" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="F24" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="G24" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-1900</v>
       </c>
       <c r="K24" s="3">
         <v>-1900</v>
@@ -1292,16 +1292,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15300</v>
+        <v>-14300</v>
       </c>
       <c r="E26" s="3">
-        <v>-19200</v>
+        <v>-18000</v>
       </c>
       <c r="F26" s="3">
-        <v>-93300</v>
+        <v>-87100</v>
       </c>
       <c r="G26" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
@@ -1327,16 +1327,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="E27" s="3">
-        <v>-19200</v>
+        <v>-17900</v>
       </c>
       <c r="F27" s="3">
-        <v>-173500</v>
+        <v>-162100</v>
       </c>
       <c r="G27" s="3">
-        <v>-95200</v>
+        <v>-88900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
@@ -1502,16 +1502,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8100</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1537,16 +1537,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="E33" s="3">
-        <v>-19200</v>
+        <v>-17900</v>
       </c>
       <c r="F33" s="3">
-        <v>-173500</v>
+        <v>-162100</v>
       </c>
       <c r="G33" s="3">
-        <v>-95200</v>
+        <v>-88900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
@@ -1607,16 +1607,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="E35" s="3">
-        <v>-19200</v>
+        <v>-17900</v>
       </c>
       <c r="F35" s="3">
-        <v>-173500</v>
+        <v>-162100</v>
       </c>
       <c r="G35" s="3">
-        <v>-95200</v>
+        <v>-88900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
@@ -1712,16 +1712,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>214000</v>
+        <v>199900</v>
       </c>
       <c r="E41" s="3">
-        <v>299100</v>
+        <v>279300</v>
       </c>
       <c r="F41" s="3">
-        <v>439400</v>
+        <v>410500</v>
       </c>
       <c r="G41" s="3">
-        <v>103700</v>
+        <v>96800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1747,13 +1747,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80500</v>
+        <v>75200</v>
       </c>
       <c r="E42" s="3">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="F42" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>128600</v>
+        <v>120100</v>
       </c>
       <c r="E43" s="3">
-        <v>92600</v>
+        <v>86500</v>
       </c>
       <c r="F43" s="3">
-        <v>78400</v>
+        <v>73200</v>
       </c>
       <c r="G43" s="3">
-        <v>72200</v>
+        <v>67500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1817,16 +1817,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="E44" s="3">
-        <v>79000</v>
+        <v>73800</v>
       </c>
       <c r="F44" s="3">
-        <v>55600</v>
+        <v>51900</v>
       </c>
       <c r="G44" s="3">
-        <v>50100</v>
+        <v>46800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1852,16 +1852,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>156200</v>
+        <v>145900</v>
       </c>
       <c r="E45" s="3">
-        <v>129800</v>
+        <v>121300</v>
       </c>
       <c r="F45" s="3">
-        <v>88700</v>
+        <v>82900</v>
       </c>
       <c r="G45" s="3">
-        <v>69300</v>
+        <v>64700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1887,16 +1887,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>654800</v>
+        <v>611700</v>
       </c>
       <c r="E46" s="3">
-        <v>660400</v>
+        <v>616900</v>
       </c>
       <c r="F46" s="3">
-        <v>670000</v>
+        <v>625800</v>
       </c>
       <c r="G46" s="3">
-        <v>295300</v>
+        <v>275800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -1922,16 +1922,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38100</v>
+        <v>35600</v>
       </c>
       <c r="E47" s="3">
-        <v>32400</v>
+        <v>30200</v>
       </c>
       <c r="F47" s="3">
-        <v>18000</v>
+        <v>16800</v>
       </c>
       <c r="G47" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1957,16 +1957,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27400</v>
+        <v>15300</v>
       </c>
       <c r="E48" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="F48" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="G48" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -1992,16 +1992,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>454200</v>
+        <v>424300</v>
       </c>
       <c r="E49" s="3">
-        <v>467500</v>
+        <v>436700</v>
       </c>
       <c r="F49" s="3">
-        <v>480300</v>
+        <v>448700</v>
       </c>
       <c r="G49" s="3">
-        <v>488000</v>
+        <v>455800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2097,16 +2097,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9100</v>
+        <v>18800</v>
       </c>
       <c r="E52" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="F52" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="G52" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2167,16 +2167,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1183600</v>
+        <v>1105600</v>
       </c>
       <c r="E54" s="3">
-        <v>1196700</v>
+        <v>1117800</v>
       </c>
       <c r="F54" s="3">
-        <v>1196200</v>
+        <v>1117300</v>
       </c>
       <c r="G54" s="3">
-        <v>812700</v>
+        <v>759100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -2232,16 +2232,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G57" s="3">
         <v>6500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -2267,16 +2267,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>33000</v>
+        <v>30800</v>
       </c>
       <c r="G58" s="3">
-        <v>69700</v>
+        <v>65100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2302,16 +2302,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>108600</v>
+        <v>101400</v>
       </c>
       <c r="E59" s="3">
-        <v>92100</v>
+        <v>86000</v>
       </c>
       <c r="F59" s="3">
-        <v>86300</v>
+        <v>80600</v>
       </c>
       <c r="G59" s="3">
-        <v>93700</v>
+        <v>87500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -2337,16 +2337,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>130100</v>
+        <v>121500</v>
       </c>
       <c r="E60" s="3">
-        <v>122200</v>
+        <v>114200</v>
       </c>
       <c r="F60" s="3">
-        <v>126900</v>
+        <v>118500</v>
       </c>
       <c r="G60" s="3">
-        <v>170300</v>
+        <v>159100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -2378,10 +2378,10 @@
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G61" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2407,16 +2407,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="E62" s="3">
-        <v>51700</v>
+        <v>48300</v>
       </c>
       <c r="F62" s="3">
-        <v>58400</v>
+        <v>54500</v>
       </c>
       <c r="G62" s="3">
-        <v>50900</v>
+        <v>47500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2547,16 +2547,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170700</v>
+        <v>159500</v>
       </c>
       <c r="E66" s="3">
-        <v>174800</v>
+        <v>163300</v>
       </c>
       <c r="F66" s="3">
-        <v>187500</v>
+        <v>175100</v>
       </c>
       <c r="G66" s="3">
-        <v>224700</v>
+        <v>209900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1505400</v>
+        <v>1406200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2736,8 +2736,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-963600</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -2746,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>-917700</v>
+        <v>-857200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1012900</v>
+        <v>946100</v>
       </c>
       <c r="E76" s="3">
-        <v>1021800</v>
+        <v>954500</v>
       </c>
       <c r="F76" s="3">
-        <v>1008700</v>
+        <v>942200</v>
       </c>
       <c r="G76" s="3">
-        <v>-917400</v>
+        <v>-857000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
@@ -2987,16 +2987,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="E81" s="3">
-        <v>-19200</v>
+        <v>-17900</v>
       </c>
       <c r="F81" s="3">
-        <v>-173500</v>
+        <v>-162100</v>
       </c>
       <c r="G81" s="3">
-        <v>-95200</v>
+        <v>-88900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
@@ -3036,26 +3036,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>12800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3246,26 +3246,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-44600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3296,26 +3296,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3401,26 +3401,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>12800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3591,26 +3591,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-6500</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3626,26 +3626,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -3661,26 +3661,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-37900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>358900</v>
+        <v>313300</v>
       </c>
       <c r="E8" s="3">
-        <v>289200</v>
+        <v>322200</v>
       </c>
       <c r="F8" s="3">
-        <v>498400</v>
+        <v>355700</v>
       </c>
       <c r="G8" s="3">
-        <v>223200</v>
+        <v>286600</v>
       </c>
       <c r="H8" s="3">
-        <v>242300</v>
+        <v>493900</v>
       </c>
       <c r="I8" s="3">
+        <v>221100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>240100</v>
+      </c>
+      <c r="K8" s="3">
         <v>195400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>176200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>108400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>308100</v>
+        <v>281700</v>
       </c>
       <c r="E9" s="3">
-        <v>253100</v>
+        <v>282700</v>
       </c>
       <c r="F9" s="3">
-        <v>440500</v>
+        <v>305300</v>
       </c>
       <c r="G9" s="3">
-        <v>194300</v>
+        <v>250800</v>
       </c>
       <c r="H9" s="3">
-        <v>210200</v>
+        <v>436600</v>
       </c>
       <c r="I9" s="3">
+        <v>192600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K9" s="3">
         <v>169900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>153100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>103100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>590400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50900</v>
+        <v>31600</v>
       </c>
       <c r="E10" s="3">
-        <v>36100</v>
+        <v>39500</v>
       </c>
       <c r="F10" s="3">
-        <v>57800</v>
+        <v>50400</v>
       </c>
       <c r="G10" s="3">
-        <v>28800</v>
+        <v>35800</v>
       </c>
       <c r="H10" s="3">
-        <v>32100</v>
+        <v>57300</v>
       </c>
       <c r="I10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K10" s="3">
         <v>25500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>23100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +865,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>19800</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="I12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>22000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,20 +943,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -935,34 +975,40 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>13500</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>12800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>379900</v>
+        <v>337900</v>
       </c>
       <c r="E17" s="3">
-        <v>311300</v>
+        <v>341900</v>
       </c>
       <c r="F17" s="3">
-        <v>589600</v>
+        <v>376500</v>
       </c>
       <c r="G17" s="3">
-        <v>239600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
+        <v>308500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>584200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>237400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>139500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21000</v>
+        <v>-24600</v>
       </c>
       <c r="E18" s="3">
-        <v>-22200</v>
+        <v>-19700</v>
       </c>
       <c r="F18" s="3">
-        <v>-91200</v>
+        <v>-20800</v>
       </c>
       <c r="G18" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+        <v>-22000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-16300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-31100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,43 +1142,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,137 +1196,161 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3000</v>
+      <c r="F21" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-2900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-15100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1900</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O22" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26400</v>
+        <v>-19900</v>
       </c>
       <c r="E23" s="3">
-        <v>-21300</v>
+        <v>-25200</v>
       </c>
       <c r="F23" s="3">
-        <v>-92900</v>
+        <v>-26100</v>
       </c>
       <c r="G23" s="3">
-        <v>-16700</v>
+        <v>-21100</v>
       </c>
       <c r="H23" s="3">
-        <v>-13900</v>
+        <v>-92000</v>
       </c>
       <c r="I23" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-30400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12100</v>
+        <v>-2000</v>
       </c>
       <c r="E24" s="3">
-        <v>-3400</v>
+        <v>-1900</v>
       </c>
       <c r="F24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-4600</v>
       </c>
       <c r="M24" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14300</v>
+        <v>-17800</v>
       </c>
       <c r="E26" s="3">
-        <v>-18000</v>
+        <v>-23300</v>
       </c>
       <c r="F26" s="3">
-        <v>-87100</v>
+        <v>-14100</v>
       </c>
       <c r="G26" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
+        <v>-17800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-13800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>-28500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15300</v>
+        <v>-18300</v>
       </c>
       <c r="E27" s="3">
-        <v>-17900</v>
+        <v>-23600</v>
       </c>
       <c r="F27" s="3">
-        <v>-162100</v>
+        <v>-15100</v>
       </c>
       <c r="G27" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
+        <v>-17800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-88100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>-80200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15300</v>
+        <v>-18300</v>
       </c>
       <c r="E33" s="3">
-        <v>-17900</v>
+        <v>-23600</v>
       </c>
       <c r="F33" s="3">
-        <v>-162100</v>
+        <v>-15100</v>
       </c>
       <c r="G33" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
+        <v>-17800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-88100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>-80200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15300</v>
+        <v>-18300</v>
       </c>
       <c r="E35" s="3">
-        <v>-17900</v>
+        <v>-23600</v>
       </c>
       <c r="F35" s="3">
-        <v>-162100</v>
+        <v>-15100</v>
       </c>
       <c r="G35" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
+        <v>-17800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-88100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>-80200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,28 +1878,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>199900</v>
+        <v>177600</v>
       </c>
       <c r="E41" s="3">
-        <v>279300</v>
+        <v>164500</v>
       </c>
       <c r="F41" s="3">
-        <v>410500</v>
+        <v>198100</v>
       </c>
       <c r="G41" s="3">
-        <v>96800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+        <v>276800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>406800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>96000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1741,28 +1915,34 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>75200</v>
+        <v>150500</v>
       </c>
       <c r="E42" s="3">
-        <v>56000</v>
+        <v>128500</v>
       </c>
       <c r="F42" s="3">
-        <v>7400</v>
+        <v>74500</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+        <v>55500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1776,28 +1956,34 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>120100</v>
+        <v>71000</v>
       </c>
       <c r="E43" s="3">
-        <v>86500</v>
+        <v>104800</v>
       </c>
       <c r="F43" s="3">
-        <v>73200</v>
+        <v>119000</v>
       </c>
       <c r="G43" s="3">
-        <v>67500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+        <v>85700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>72500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>66900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1811,28 +1997,34 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>70500</v>
+        <v>98300</v>
       </c>
       <c r="E44" s="3">
-        <v>73800</v>
+        <v>97500</v>
       </c>
       <c r="F44" s="3">
-        <v>51900</v>
+        <v>69900</v>
       </c>
       <c r="G44" s="3">
-        <v>46800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>73100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>46400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1846,28 +2038,34 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145900</v>
+        <v>101800</v>
       </c>
       <c r="E45" s="3">
-        <v>121300</v>
+        <v>113500</v>
       </c>
       <c r="F45" s="3">
-        <v>82900</v>
+        <v>144600</v>
       </c>
       <c r="G45" s="3">
-        <v>64700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>120200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>82100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>64100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1881,28 +2079,34 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>611700</v>
+        <v>599300</v>
       </c>
       <c r="E46" s="3">
-        <v>616900</v>
+        <v>608800</v>
       </c>
       <c r="F46" s="3">
-        <v>625800</v>
+        <v>606100</v>
       </c>
       <c r="G46" s="3">
-        <v>275800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+        <v>611300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>620200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>273400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -1916,28 +2120,34 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35600</v>
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
-        <v>30200</v>
+        <v>34700</v>
       </c>
       <c r="F47" s="3">
-        <v>16800</v>
+        <v>35300</v>
       </c>
       <c r="G47" s="3">
-        <v>15500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+        <v>30000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>15300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1951,28 +2161,34 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15300</v>
+        <v>16900</v>
       </c>
       <c r="E48" s="3">
-        <v>12700</v>
+        <v>14900</v>
       </c>
       <c r="F48" s="3">
-        <v>11500</v>
+        <v>15200</v>
       </c>
       <c r="G48" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>12500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1986,28 +2202,34 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>424300</v>
+        <v>399200</v>
       </c>
       <c r="E49" s="3">
-        <v>436700</v>
+        <v>408600</v>
       </c>
       <c r="F49" s="3">
-        <v>448700</v>
+        <v>420500</v>
       </c>
       <c r="G49" s="3">
-        <v>455800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+        <v>432700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>444600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>451700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,29 +2325,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18800</v>
+        <v>13300</v>
       </c>
       <c r="E52" s="3">
-        <v>21300</v>
+        <v>15400</v>
       </c>
       <c r="F52" s="3">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="G52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,28 +2407,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1105600</v>
+        <v>1062900</v>
       </c>
       <c r="E54" s="3">
-        <v>1117800</v>
+        <v>1082400</v>
       </c>
       <c r="F54" s="3">
-        <v>1117300</v>
+        <v>1095600</v>
       </c>
       <c r="G54" s="3">
-        <v>759100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+        <v>1107700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>752300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,28 +2486,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>9800</v>
       </c>
       <c r="E57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>6400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2261,28 +2523,34 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>21400</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="F58" s="3">
-        <v>30800</v>
+        <v>13900</v>
       </c>
       <c r="G58" s="3">
-        <v>65100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+        <v>20700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>30600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>64600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2296,28 +2564,34 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>101400</v>
+        <v>120500</v>
       </c>
       <c r="E59" s="3">
-        <v>86000</v>
+        <v>112200</v>
       </c>
       <c r="F59" s="3">
-        <v>80600</v>
+        <v>100500</v>
       </c>
       <c r="G59" s="3">
-        <v>87500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>85200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>79800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>86700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2331,28 +2605,34 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121500</v>
+        <v>151700</v>
       </c>
       <c r="E60" s="3">
-        <v>114200</v>
+        <v>145700</v>
       </c>
       <c r="F60" s="3">
-        <v>118500</v>
+        <v>120400</v>
       </c>
       <c r="G60" s="3">
-        <v>159100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>113100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>117400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>157700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2375,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2401,28 +2687,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38000</v>
+        <v>34100</v>
       </c>
       <c r="E62" s="3">
-        <v>48300</v>
+        <v>35900</v>
       </c>
       <c r="F62" s="3">
-        <v>54500</v>
+        <v>37600</v>
       </c>
       <c r="G62" s="3">
-        <v>47500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+        <v>47800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>47100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +2851,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159500</v>
+        <v>185700</v>
       </c>
       <c r="E66" s="3">
-        <v>163300</v>
+        <v>181600</v>
       </c>
       <c r="F66" s="3">
-        <v>175100</v>
+        <v>158000</v>
       </c>
       <c r="G66" s="3">
-        <v>209900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+        <v>161800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>173500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>208000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2676,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1406200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1393500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,28 +3073,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-963600</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-857200</v>
+      <c r="F72" s="3">
+        <v>-954900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3">
+        <v>-849500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>946100</v>
+        <v>877200</v>
       </c>
       <c r="E76" s="3">
-        <v>954500</v>
+        <v>900800</v>
       </c>
       <c r="F76" s="3">
-        <v>942200</v>
+        <v>937600</v>
       </c>
       <c r="G76" s="3">
-        <v>-857000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+        <v>945900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>933700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-849200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15300</v>
+        <v>-18300</v>
       </c>
       <c r="E81" s="3">
-        <v>-17900</v>
+        <v>-23600</v>
       </c>
       <c r="F81" s="3">
-        <v>-162100</v>
+        <v>-15100</v>
       </c>
       <c r="G81" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
+        <v>-17800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-88100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>-80200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,11 +3440,11 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12800</v>
+      <c r="F83" s="3">
+        <v>54600</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3066,8 +3464,14 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3669,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3252,11 +3686,11 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-44600</v>
+      <c r="F89" s="3">
+        <v>-148700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -3276,8 +3710,14 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,11 +3744,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
+      <c r="F91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3326,8 +3768,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,11 +3867,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>12800</v>
+      <c r="F94" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3431,8 +3891,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +4072,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3597,11 +4089,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-6500</v>
+      <c r="F100" s="3">
+        <v>334400</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3621,8 +4113,14 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3632,11 +4130,11 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>400</v>
+      <c r="F101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3656,8 +4154,14 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3667,11 +4171,11 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-37900</v>
+      <c r="F102" s="3">
+        <v>85900</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -3689,6 +4193,12 @@
         <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>313300</v>
+        <v>298700</v>
       </c>
       <c r="E8" s="3">
-        <v>322200</v>
+        <v>307100</v>
       </c>
       <c r="F8" s="3">
-        <v>355700</v>
+        <v>339100</v>
       </c>
       <c r="G8" s="3">
-        <v>286600</v>
+        <v>273200</v>
       </c>
       <c r="H8" s="3">
-        <v>493900</v>
+        <v>470800</v>
       </c>
       <c r="I8" s="3">
-        <v>221100</v>
+        <v>210800</v>
       </c>
       <c r="J8" s="3">
-        <v>240100</v>
+        <v>228900</v>
       </c>
       <c r="K8" s="3">
         <v>195400</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="E9" s="3">
-        <v>282700</v>
+        <v>269500</v>
       </c>
       <c r="F9" s="3">
-        <v>305300</v>
+        <v>291000</v>
       </c>
       <c r="G9" s="3">
-        <v>250800</v>
+        <v>239000</v>
       </c>
       <c r="H9" s="3">
-        <v>436600</v>
+        <v>416200</v>
       </c>
       <c r="I9" s="3">
-        <v>192600</v>
+        <v>183600</v>
       </c>
       <c r="J9" s="3">
-        <v>208300</v>
+        <v>198600</v>
       </c>
       <c r="K9" s="3">
         <v>169900</v>
@@ -815,25 +815,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31600</v>
+        <v>30200</v>
       </c>
       <c r="E10" s="3">
-        <v>39500</v>
+        <v>37600</v>
       </c>
       <c r="F10" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="G10" s="3">
-        <v>35800</v>
+        <v>34100</v>
       </c>
       <c r="H10" s="3">
-        <v>57300</v>
+        <v>54600</v>
       </c>
       <c r="I10" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="J10" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="K10" s="3">
         <v>25500</v>
@@ -873,25 +873,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="G12" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="I12" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="J12" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="K12" s="3">
         <v>5600</v>
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -996,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="E15" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="H15" s="3">
-        <v>22700</v>
+        <v>21700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1051,22 +1051,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>337900</v>
+        <v>322100</v>
       </c>
       <c r="E17" s="3">
-        <v>341900</v>
+        <v>325900</v>
       </c>
       <c r="F17" s="3">
-        <v>376500</v>
+        <v>358900</v>
       </c>
       <c r="G17" s="3">
-        <v>308500</v>
+        <v>294100</v>
       </c>
       <c r="H17" s="3">
-        <v>584200</v>
+        <v>556900</v>
       </c>
       <c r="I17" s="3">
-        <v>237400</v>
+        <v>226300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
@@ -1092,22 +1092,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="E18" s="3">
-        <v>-19700</v>
+        <v>-18800</v>
       </c>
       <c r="F18" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="G18" s="3">
-        <v>-22000</v>
+        <v>-20900</v>
       </c>
       <c r="H18" s="3">
-        <v>-90400</v>
+        <v>-86100</v>
       </c>
       <c r="I18" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1150,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>28700</v>
+        <v>27400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1238,19 +1238,19 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19900</v>
+        <v>-18900</v>
       </c>
       <c r="E23" s="3">
-        <v>-25200</v>
+        <v>-24000</v>
       </c>
       <c r="F23" s="3">
-        <v>-26100</v>
+        <v>-24900</v>
       </c>
       <c r="G23" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H23" s="3">
-        <v>-92000</v>
+        <v>-87700</v>
       </c>
       <c r="I23" s="3">
-        <v>-16600</v>
+        <v>-15800</v>
       </c>
       <c r="J23" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="K23" s="3">
         <v>-15400</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F24" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="G24" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H24" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="I24" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1396,22 +1396,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17800</v>
+        <v>-17000</v>
       </c>
       <c r="E26" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="F26" s="3">
-        <v>-14100</v>
+        <v>-13500</v>
       </c>
       <c r="G26" s="3">
-        <v>-17800</v>
+        <v>-17000</v>
       </c>
       <c r="H26" s="3">
-        <v>-86400</v>
+        <v>-82300</v>
       </c>
       <c r="I26" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
@@ -1437,22 +1437,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="E27" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="F27" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="G27" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="H27" s="3">
-        <v>-160600</v>
+        <v>-153100</v>
       </c>
       <c r="I27" s="3">
-        <v>-88100</v>
+        <v>-84000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
@@ -1642,16 +1642,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1683,22 +1683,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="E33" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="F33" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="G33" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="H33" s="3">
-        <v>-160600</v>
+        <v>-153100</v>
       </c>
       <c r="I33" s="3">
-        <v>-88100</v>
+        <v>-84000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
@@ -1765,22 +1765,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="E35" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="F35" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="G35" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="H35" s="3">
-        <v>-160600</v>
+        <v>-153100</v>
       </c>
       <c r="I35" s="3">
-        <v>-88100</v>
+        <v>-84000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
@@ -1886,22 +1886,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177600</v>
+        <v>169300</v>
       </c>
       <c r="E41" s="3">
-        <v>164500</v>
+        <v>156800</v>
       </c>
       <c r="F41" s="3">
-        <v>198100</v>
+        <v>188800</v>
       </c>
       <c r="G41" s="3">
-        <v>276800</v>
+        <v>263900</v>
       </c>
       <c r="H41" s="3">
-        <v>406800</v>
+        <v>387700</v>
       </c>
       <c r="I41" s="3">
-        <v>96000</v>
+        <v>91500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1927,19 +1927,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>150500</v>
+        <v>143500</v>
       </c>
       <c r="E42" s="3">
-        <v>128500</v>
+        <v>122500</v>
       </c>
       <c r="F42" s="3">
-        <v>74500</v>
+        <v>71100</v>
       </c>
       <c r="G42" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="H42" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="E43" s="3">
-        <v>104800</v>
+        <v>99900</v>
       </c>
       <c r="F43" s="3">
-        <v>119000</v>
+        <v>113500</v>
       </c>
       <c r="G43" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="H43" s="3">
-        <v>72500</v>
+        <v>69100</v>
       </c>
       <c r="I43" s="3">
-        <v>66900</v>
+        <v>63700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2009,22 +2009,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>98300</v>
+        <v>93700</v>
       </c>
       <c r="E44" s="3">
-        <v>97500</v>
+        <v>93000</v>
       </c>
       <c r="F44" s="3">
-        <v>69900</v>
+        <v>66600</v>
       </c>
       <c r="G44" s="3">
-        <v>73100</v>
+        <v>69700</v>
       </c>
       <c r="H44" s="3">
-        <v>51500</v>
+        <v>49000</v>
       </c>
       <c r="I44" s="3">
-        <v>46400</v>
+        <v>44200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2050,22 +2050,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101800</v>
+        <v>97100</v>
       </c>
       <c r="E45" s="3">
-        <v>113500</v>
+        <v>108200</v>
       </c>
       <c r="F45" s="3">
-        <v>144600</v>
+        <v>137800</v>
       </c>
       <c r="G45" s="3">
-        <v>120200</v>
+        <v>114600</v>
       </c>
       <c r="H45" s="3">
-        <v>82100</v>
+        <v>78300</v>
       </c>
       <c r="I45" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2091,22 +2091,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>599300</v>
+        <v>571300</v>
       </c>
       <c r="E46" s="3">
-        <v>608800</v>
+        <v>580400</v>
       </c>
       <c r="F46" s="3">
-        <v>606100</v>
+        <v>577800</v>
       </c>
       <c r="G46" s="3">
-        <v>611300</v>
+        <v>582700</v>
       </c>
       <c r="H46" s="3">
-        <v>620200</v>
+        <v>591200</v>
       </c>
       <c r="I46" s="3">
-        <v>273400</v>
+        <v>260600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -2132,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="E47" s="3">
-        <v>34700</v>
+        <v>33100</v>
       </c>
       <c r="F47" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="G47" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="H47" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="I47" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2173,22 +2173,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="E48" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="F48" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="G48" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="H48" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="I48" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2214,22 +2214,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>399200</v>
+        <v>380500</v>
       </c>
       <c r="E49" s="3">
-        <v>408600</v>
+        <v>389500</v>
       </c>
       <c r="F49" s="3">
-        <v>420500</v>
+        <v>400800</v>
       </c>
       <c r="G49" s="3">
-        <v>432700</v>
+        <v>412500</v>
       </c>
       <c r="H49" s="3">
-        <v>444600</v>
+        <v>423800</v>
       </c>
       <c r="I49" s="3">
-        <v>451700</v>
+        <v>430600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2337,22 +2337,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="F52" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="G52" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="H52" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2419,22 +2419,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1062900</v>
+        <v>1013200</v>
       </c>
       <c r="E54" s="3">
-        <v>1082400</v>
+        <v>1031800</v>
       </c>
       <c r="F54" s="3">
-        <v>1095600</v>
+        <v>1044400</v>
       </c>
       <c r="G54" s="3">
-        <v>1107700</v>
+        <v>1055900</v>
       </c>
       <c r="H54" s="3">
-        <v>1107200</v>
+        <v>1055400</v>
       </c>
       <c r="I54" s="3">
-        <v>752300</v>
+        <v>717100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2494,22 +2494,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="E57" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="F57" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G57" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="H57" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="I57" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2535,22 +2535,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="E58" s="3">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="F58" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="G58" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="H58" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="I58" s="3">
-        <v>64600</v>
+        <v>61500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2576,22 +2576,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120500</v>
+        <v>114900</v>
       </c>
       <c r="E59" s="3">
-        <v>112200</v>
+        <v>107000</v>
       </c>
       <c r="F59" s="3">
-        <v>100500</v>
+        <v>95800</v>
       </c>
       <c r="G59" s="3">
-        <v>85200</v>
+        <v>81200</v>
       </c>
       <c r="H59" s="3">
-        <v>79800</v>
+        <v>76100</v>
       </c>
       <c r="I59" s="3">
-        <v>86700</v>
+        <v>82600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2617,22 +2617,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>151700</v>
+        <v>144600</v>
       </c>
       <c r="E60" s="3">
-        <v>145700</v>
+        <v>138900</v>
       </c>
       <c r="F60" s="3">
-        <v>120400</v>
+        <v>114800</v>
       </c>
       <c r="G60" s="3">
-        <v>113100</v>
+        <v>107800</v>
       </c>
       <c r="H60" s="3">
-        <v>117400</v>
+        <v>112000</v>
       </c>
       <c r="I60" s="3">
-        <v>157700</v>
+        <v>150300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2667,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I61" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2699,22 +2699,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34100</v>
+        <v>32500</v>
       </c>
       <c r="E62" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
-        <v>37600</v>
-      </c>
       <c r="G62" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="H62" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="I62" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2863,22 +2863,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>185700</v>
+        <v>177100</v>
       </c>
       <c r="E66" s="3">
-        <v>181600</v>
+        <v>173100</v>
       </c>
       <c r="F66" s="3">
-        <v>158000</v>
+        <v>150700</v>
       </c>
       <c r="G66" s="3">
-        <v>161800</v>
+        <v>154300</v>
       </c>
       <c r="H66" s="3">
-        <v>173500</v>
+        <v>165400</v>
       </c>
       <c r="I66" s="3">
-        <v>208000</v>
+        <v>198300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1393500</v>
+        <v>1328300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>-954900</v>
+        <v>-910200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="3">
-        <v>-849500</v>
+        <v>-809800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -3249,22 +3249,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>877200</v>
+        <v>836100</v>
       </c>
       <c r="E76" s="3">
-        <v>900800</v>
+        <v>858700</v>
       </c>
       <c r="F76" s="3">
-        <v>937600</v>
+        <v>893700</v>
       </c>
       <c r="G76" s="3">
-        <v>945900</v>
+        <v>901600</v>
       </c>
       <c r="H76" s="3">
-        <v>933700</v>
+        <v>890000</v>
       </c>
       <c r="I76" s="3">
-        <v>-849200</v>
+        <v>-809500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -3377,22 +3377,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="E81" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="F81" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="G81" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="H81" s="3">
-        <v>-160600</v>
+        <v>-153100</v>
       </c>
       <c r="I81" s="3">
-        <v>-88100</v>
+        <v>-84000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="F83" s="3">
-        <v>54600</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3687,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>-148700</v>
+        <v>-141700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
@@ -3745,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="3">
-        <v>-97900</v>
+        <v>-93300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4090,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -4131,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="3">
-        <v>85900</v>
+        <v>81900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>298700</v>
+        <v>364200</v>
       </c>
       <c r="E8" s="3">
-        <v>307100</v>
+        <v>308200</v>
       </c>
       <c r="F8" s="3">
-        <v>339100</v>
+        <v>316900</v>
       </c>
       <c r="G8" s="3">
-        <v>273200</v>
+        <v>349800</v>
       </c>
       <c r="H8" s="3">
-        <v>470800</v>
+        <v>281800</v>
       </c>
       <c r="I8" s="3">
-        <v>210800</v>
+        <v>485700</v>
       </c>
       <c r="J8" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K8" s="3">
         <v>228900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>195400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>108400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>268500</v>
+        <v>317300</v>
       </c>
       <c r="E9" s="3">
-        <v>269500</v>
+        <v>277000</v>
       </c>
       <c r="F9" s="3">
-        <v>291000</v>
+        <v>278100</v>
       </c>
       <c r="G9" s="3">
-        <v>239000</v>
+        <v>300300</v>
       </c>
       <c r="H9" s="3">
-        <v>416200</v>
+        <v>246600</v>
       </c>
       <c r="I9" s="3">
-        <v>183600</v>
+        <v>429400</v>
       </c>
       <c r="J9" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K9" s="3">
         <v>198600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>153100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>590400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30200</v>
+        <v>46900</v>
       </c>
       <c r="E10" s="3">
-        <v>37600</v>
+        <v>31100</v>
       </c>
       <c r="F10" s="3">
-        <v>48000</v>
+        <v>38800</v>
       </c>
       <c r="G10" s="3">
-        <v>34100</v>
+        <v>49600</v>
       </c>
       <c r="H10" s="3">
-        <v>54600</v>
+        <v>35200</v>
       </c>
       <c r="I10" s="3">
-        <v>27200</v>
+        <v>56400</v>
       </c>
       <c r="J10" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K10" s="3">
         <v>30300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8100</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F12" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G12" s="3">
         <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>18700</v>
+        <v>9100</v>
       </c>
       <c r="I12" s="3">
-        <v>7700</v>
+        <v>19300</v>
       </c>
       <c r="J12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,11 +980,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -981,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,28 +1010,31 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="E15" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12700</v>
+        <v>13300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>21700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+        <v>13100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,31 +1071,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>322100</v>
+        <v>380000</v>
       </c>
       <c r="E17" s="3">
-        <v>325900</v>
+        <v>332300</v>
       </c>
       <c r="F17" s="3">
-        <v>358900</v>
+        <v>336300</v>
       </c>
       <c r="G17" s="3">
-        <v>294100</v>
+        <v>370300</v>
       </c>
       <c r="H17" s="3">
-        <v>556900</v>
+        <v>303400</v>
       </c>
       <c r="I17" s="3">
-        <v>226300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+        <v>574600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>233500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -1077,40 +1104,43 @@
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>139500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23400</v>
+        <v>-15800</v>
       </c>
       <c r="E18" s="3">
-        <v>-18800</v>
+        <v>-24200</v>
       </c>
       <c r="F18" s="3">
-        <v>-19800</v>
+        <v>-19400</v>
       </c>
       <c r="G18" s="3">
-        <v>-20900</v>
+        <v>-20500</v>
       </c>
       <c r="H18" s="3">
-        <v>-86100</v>
+        <v>-21600</v>
       </c>
       <c r="I18" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+        <v>-88900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-16000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1118,17 +1148,20 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-31100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5100</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4800</v>
+        <v>-5300</v>
       </c>
       <c r="G20" s="3">
-        <v>1200</v>
+        <v>-5000</v>
       </c>
       <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,20 +1233,20 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>27400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>28200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1217,99 +1254,108 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-15100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18900</v>
+        <v>-6100</v>
       </c>
       <c r="E23" s="3">
-        <v>-24000</v>
+        <v>-19500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24900</v>
+        <v>-24800</v>
       </c>
       <c r="G23" s="3">
-        <v>-20100</v>
+        <v>-25700</v>
       </c>
       <c r="H23" s="3">
-        <v>-87700</v>
+        <v>-20800</v>
       </c>
       <c r="I23" s="3">
-        <v>-15800</v>
+        <v>-90500</v>
       </c>
       <c r="J23" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,40 +1363,43 @@
         <v>-1900</v>
       </c>
       <c r="E24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,72 +1439,78 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17000</v>
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
-        <v>-22200</v>
+        <v>-17500</v>
       </c>
       <c r="F26" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-82300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-28500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17400</v>
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
-        <v>-22500</v>
+        <v>-18000</v>
       </c>
       <c r="F27" s="3">
-        <v>-14400</v>
+        <v>-23200</v>
       </c>
       <c r="G27" s="3">
-        <v>-16900</v>
+        <v>-14900</v>
       </c>
       <c r="H27" s="3">
-        <v>-153100</v>
+        <v>-17500</v>
       </c>
       <c r="I27" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+        <v>-158000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-86700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -1463,17 +1518,20 @@
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-80200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,72 +1703,78 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>5100</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1200</v>
+        <v>5000</v>
       </c>
       <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17400</v>
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
-        <v>-22500</v>
+        <v>-18000</v>
       </c>
       <c r="F33" s="3">
-        <v>-14400</v>
+        <v>-23200</v>
       </c>
       <c r="G33" s="3">
-        <v>-16900</v>
+        <v>-14900</v>
       </c>
       <c r="H33" s="3">
-        <v>-153100</v>
+        <v>-17500</v>
       </c>
       <c r="I33" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+        <v>-158000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-86700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
@@ -1709,17 +1782,20 @@
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-80200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,31 +1835,34 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17400</v>
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
-        <v>-22500</v>
+        <v>-18000</v>
       </c>
       <c r="F35" s="3">
-        <v>-14400</v>
+        <v>-23200</v>
       </c>
       <c r="G35" s="3">
-        <v>-16900</v>
+        <v>-14900</v>
       </c>
       <c r="H35" s="3">
-        <v>-153100</v>
+        <v>-17500</v>
       </c>
       <c r="I35" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+        <v>-158000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-86700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
@@ -1791,63 +1870,69 @@
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-80200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169300</v>
+        <v>182400</v>
       </c>
       <c r="E41" s="3">
-        <v>156800</v>
+        <v>174600</v>
       </c>
       <c r="F41" s="3">
-        <v>188800</v>
+        <v>161800</v>
       </c>
       <c r="G41" s="3">
-        <v>263900</v>
+        <v>194800</v>
       </c>
       <c r="H41" s="3">
-        <v>387700</v>
+        <v>272300</v>
       </c>
       <c r="I41" s="3">
-        <v>91500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+        <v>400100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>94400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -1921,31 +2008,34 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>143500</v>
+        <v>145500</v>
       </c>
       <c r="E42" s="3">
-        <v>122500</v>
+        <v>148000</v>
       </c>
       <c r="F42" s="3">
-        <v>71100</v>
+        <v>126400</v>
       </c>
       <c r="G42" s="3">
-        <v>52900</v>
+        <v>73300</v>
       </c>
       <c r="H42" s="3">
-        <v>7000</v>
+        <v>54600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>7200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -1962,31 +2052,34 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67700</v>
+        <v>74000</v>
       </c>
       <c r="E43" s="3">
-        <v>99900</v>
+        <v>69900</v>
       </c>
       <c r="F43" s="3">
-        <v>113500</v>
+        <v>103100</v>
       </c>
       <c r="G43" s="3">
-        <v>81700</v>
+        <v>117100</v>
       </c>
       <c r="H43" s="3">
-        <v>69100</v>
+        <v>84300</v>
       </c>
       <c r="I43" s="3">
-        <v>63700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+        <v>71300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>65800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2003,31 +2096,34 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>93700</v>
+        <v>65200</v>
       </c>
       <c r="E44" s="3">
-        <v>93000</v>
+        <v>96700</v>
       </c>
       <c r="F44" s="3">
-        <v>66600</v>
+        <v>95900</v>
       </c>
       <c r="G44" s="3">
-        <v>69700</v>
+        <v>68800</v>
       </c>
       <c r="H44" s="3">
-        <v>49000</v>
+        <v>71900</v>
       </c>
       <c r="I44" s="3">
-        <v>44200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+        <v>50600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>45600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2044,31 +2140,34 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97100</v>
+        <v>99200</v>
       </c>
       <c r="E45" s="3">
-        <v>108200</v>
+        <v>100100</v>
       </c>
       <c r="F45" s="3">
-        <v>137800</v>
+        <v>111600</v>
       </c>
       <c r="G45" s="3">
-        <v>114600</v>
+        <v>142200</v>
       </c>
       <c r="H45" s="3">
-        <v>78300</v>
+        <v>118200</v>
       </c>
       <c r="I45" s="3">
-        <v>61100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>80800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>63100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2085,31 +2184,34 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>571300</v>
+        <v>566300</v>
       </c>
       <c r="E46" s="3">
-        <v>580400</v>
+        <v>589400</v>
       </c>
       <c r="F46" s="3">
-        <v>577800</v>
+        <v>598800</v>
       </c>
       <c r="G46" s="3">
-        <v>582700</v>
+        <v>596100</v>
       </c>
       <c r="H46" s="3">
-        <v>591200</v>
+        <v>601300</v>
       </c>
       <c r="I46" s="3">
-        <v>260600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+        <v>609900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>268800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2126,31 +2228,34 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32600</v>
+        <v>33000</v>
       </c>
       <c r="E47" s="3">
-        <v>33100</v>
+        <v>33700</v>
       </c>
       <c r="F47" s="3">
-        <v>33600</v>
+        <v>34100</v>
       </c>
       <c r="G47" s="3">
-        <v>28600</v>
+        <v>34700</v>
       </c>
       <c r="H47" s="3">
-        <v>15900</v>
+        <v>29500</v>
       </c>
       <c r="I47" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+        <v>16400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>15100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2167,31 +2272,34 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16100</v>
+        <v>17000</v>
       </c>
       <c r="E48" s="3">
-        <v>14200</v>
+        <v>16600</v>
       </c>
       <c r="F48" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="G48" s="3">
-        <v>12000</v>
+        <v>14900</v>
       </c>
       <c r="H48" s="3">
-        <v>10900</v>
+        <v>12300</v>
       </c>
       <c r="I48" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>11200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2208,31 +2316,34 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>380500</v>
+        <v>381000</v>
       </c>
       <c r="E49" s="3">
-        <v>389500</v>
+        <v>392600</v>
       </c>
       <c r="F49" s="3">
-        <v>400800</v>
+        <v>401900</v>
       </c>
       <c r="G49" s="3">
-        <v>412500</v>
+        <v>413500</v>
       </c>
       <c r="H49" s="3">
-        <v>423800</v>
+        <v>425600</v>
       </c>
       <c r="I49" s="3">
-        <v>430600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+        <v>437300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>444300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,31 +2448,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>14800</v>
       </c>
       <c r="E52" s="3">
-        <v>14600</v>
+        <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="G52" s="3">
-        <v>20100</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>13700</v>
+        <v>20800</v>
       </c>
       <c r="I52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+        <v>14100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1013200</v>
+        <v>1012100</v>
       </c>
       <c r="E54" s="3">
-        <v>1031800</v>
+        <v>1045400</v>
       </c>
       <c r="F54" s="3">
-        <v>1044400</v>
+        <v>1064600</v>
       </c>
       <c r="G54" s="3">
-        <v>1055900</v>
+        <v>1077500</v>
       </c>
       <c r="H54" s="3">
-        <v>1055400</v>
+        <v>1089400</v>
       </c>
       <c r="I54" s="3">
-        <v>717100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+        <v>1088900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>739900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9300</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3">
-        <v>10400</v>
+        <v>9600</v>
       </c>
       <c r="F57" s="3">
-        <v>5800</v>
+        <v>10800</v>
       </c>
       <c r="G57" s="3">
-        <v>6800</v>
+        <v>5900</v>
       </c>
       <c r="H57" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="I57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+        <v>6900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2529,31 +2660,34 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H58" s="3">
         <v>20400</v>
       </c>
-      <c r="E58" s="3">
-        <v>21500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>29100</v>
-      </c>
       <c r="I58" s="3">
-        <v>61500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+        <v>30000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>63500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2570,31 +2704,34 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114900</v>
+        <v>103400</v>
       </c>
       <c r="E59" s="3">
-        <v>107000</v>
+        <v>118600</v>
       </c>
       <c r="F59" s="3">
-        <v>95800</v>
+        <v>110400</v>
       </c>
       <c r="G59" s="3">
-        <v>81200</v>
+        <v>98900</v>
       </c>
       <c r="H59" s="3">
-        <v>76100</v>
+        <v>83800</v>
       </c>
       <c r="I59" s="3">
-        <v>82600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>78500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>85300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2611,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144600</v>
+        <v>122400</v>
       </c>
       <c r="E60" s="3">
-        <v>138900</v>
+        <v>149200</v>
       </c>
       <c r="F60" s="3">
-        <v>114800</v>
+        <v>143300</v>
       </c>
       <c r="G60" s="3">
-        <v>107800</v>
+        <v>118400</v>
       </c>
       <c r="H60" s="3">
-        <v>112000</v>
+        <v>111300</v>
       </c>
       <c r="I60" s="3">
-        <v>150300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>115500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>155100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2667,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>900</v>
+      </c>
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
-        <v>3100</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2693,31 +2836,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="E62" s="3">
-        <v>34200</v>
+        <v>33500</v>
       </c>
       <c r="F62" s="3">
-        <v>35900</v>
+        <v>35300</v>
       </c>
       <c r="G62" s="3">
-        <v>45600</v>
+        <v>37000</v>
       </c>
       <c r="H62" s="3">
-        <v>51500</v>
+        <v>47000</v>
       </c>
       <c r="I62" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+        <v>53100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>46300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>177100</v>
+        <v>154300</v>
       </c>
       <c r="E66" s="3">
-        <v>173100</v>
+        <v>182700</v>
       </c>
       <c r="F66" s="3">
-        <v>150700</v>
+        <v>178600</v>
       </c>
       <c r="G66" s="3">
-        <v>154300</v>
+        <v>155400</v>
       </c>
       <c r="H66" s="3">
-        <v>165400</v>
+        <v>159100</v>
       </c>
       <c r="I66" s="3">
-        <v>198300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+        <v>170700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>204600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1328300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1370500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3090,20 +3264,20 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
-        <v>-910200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-939100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
-        <v>-809800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-835500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>836100</v>
+        <v>857800</v>
       </c>
       <c r="E76" s="3">
-        <v>858700</v>
+        <v>862700</v>
       </c>
       <c r="F76" s="3">
-        <v>893700</v>
+        <v>886000</v>
       </c>
       <c r="G76" s="3">
-        <v>901600</v>
+        <v>922100</v>
       </c>
       <c r="H76" s="3">
-        <v>890000</v>
+        <v>930300</v>
       </c>
       <c r="I76" s="3">
-        <v>-809500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+        <v>918300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-835200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,77 +3514,83 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17400</v>
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
-        <v>-22500</v>
+        <v>-18000</v>
       </c>
       <c r="F81" s="3">
-        <v>-14400</v>
+        <v>-23200</v>
       </c>
       <c r="G81" s="3">
-        <v>-16900</v>
+        <v>-14900</v>
       </c>
       <c r="H81" s="3">
-        <v>-153100</v>
+        <v>-17500</v>
       </c>
       <c r="I81" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+        <v>-158000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-86700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
@@ -3403,17 +3598,20 @@
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-80200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,11 +3639,11 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>52000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>53700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3686,11 +3903,11 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>-141700</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-146200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,11 +3965,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-10600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,11 +4097,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-93300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-96300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4089,11 +4335,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>318700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>328800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4130,11 +4379,11 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4171,11 +4423,11 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>81900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>84500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -4199,6 +4451,9 @@
         <v>4</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>364200</v>
+        <v>423800</v>
       </c>
       <c r="E8" s="3">
-        <v>308200</v>
+        <v>360500</v>
       </c>
       <c r="F8" s="3">
-        <v>316900</v>
+        <v>305000</v>
       </c>
       <c r="G8" s="3">
-        <v>349800</v>
+        <v>313700</v>
       </c>
       <c r="H8" s="3">
-        <v>281800</v>
+        <v>346200</v>
       </c>
       <c r="I8" s="3">
-        <v>485700</v>
+        <v>278900</v>
       </c>
       <c r="J8" s="3">
+        <v>480800</v>
+      </c>
+      <c r="K8" s="3">
         <v>217500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>228900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>195400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>108400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>317300</v>
+        <v>376100</v>
       </c>
       <c r="E9" s="3">
-        <v>277000</v>
+        <v>314100</v>
       </c>
       <c r="F9" s="3">
-        <v>278100</v>
+        <v>274200</v>
       </c>
       <c r="G9" s="3">
-        <v>300300</v>
+        <v>275200</v>
       </c>
       <c r="H9" s="3">
-        <v>246600</v>
+        <v>297200</v>
       </c>
       <c r="I9" s="3">
-        <v>429400</v>
+        <v>244100</v>
       </c>
       <c r="J9" s="3">
+        <v>425000</v>
+      </c>
+      <c r="K9" s="3">
         <v>189400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>198600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>169900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>153100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>103100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>590400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="E10" s="3">
-        <v>31100</v>
+        <v>46400</v>
       </c>
       <c r="F10" s="3">
-        <v>38800</v>
+        <v>30800</v>
       </c>
       <c r="G10" s="3">
-        <v>49600</v>
+        <v>38400</v>
       </c>
       <c r="H10" s="3">
-        <v>35200</v>
+        <v>49100</v>
       </c>
       <c r="I10" s="3">
-        <v>56400</v>
+        <v>34800</v>
       </c>
       <c r="J10" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K10" s="3">
         <v>28100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7000</v>
+        <v>7700</v>
       </c>
       <c r="E12" s="3">
-        <v>8400</v>
+        <v>6900</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H12" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="I12" s="3">
-        <v>19300</v>
+        <v>9000</v>
       </c>
       <c r="J12" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>260400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -983,11 +1002,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1004,8 +1023,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,31 +1032,34 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>12700</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="F15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>13100</v>
+        <v>13200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>22400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>13000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>380000</v>
+        <v>739700</v>
       </c>
       <c r="E17" s="3">
-        <v>332300</v>
+        <v>376100</v>
       </c>
       <c r="F17" s="3">
-        <v>336300</v>
+        <v>328900</v>
       </c>
       <c r="G17" s="3">
-        <v>370300</v>
+        <v>332800</v>
       </c>
       <c r="H17" s="3">
-        <v>303400</v>
+        <v>366500</v>
       </c>
       <c r="I17" s="3">
-        <v>574600</v>
+        <v>300300</v>
       </c>
       <c r="J17" s="3">
+        <v>568700</v>
+      </c>
+      <c r="K17" s="3">
         <v>233500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>139500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15800</v>
+        <v>-316000</v>
       </c>
       <c r="E18" s="3">
-        <v>-24200</v>
+        <v>-15600</v>
       </c>
       <c r="F18" s="3">
-        <v>-19400</v>
+        <v>-23900</v>
       </c>
       <c r="G18" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="H18" s="3">
-        <v>-21600</v>
+        <v>-20200</v>
       </c>
       <c r="I18" s="3">
-        <v>-88900</v>
+        <v>-21400</v>
       </c>
       <c r="J18" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-31100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>5000</v>
+        <v>9900</v>
       </c>
       <c r="F20" s="3">
-        <v>-5300</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="H20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,38 +1272,41 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>28200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-15100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,131 +1314,140 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6100</v>
+        <v>-315900</v>
       </c>
       <c r="E23" s="3">
-        <v>-19500</v>
+        <v>-6000</v>
       </c>
       <c r="F23" s="3">
-        <v>-24800</v>
+        <v>-19300</v>
       </c>
       <c r="G23" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="H23" s="3">
-        <v>-20800</v>
+        <v>-25400</v>
       </c>
       <c r="I23" s="3">
-        <v>-90500</v>
+        <v>-20600</v>
       </c>
       <c r="J23" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-11800</v>
-      </c>
       <c r="H24" s="3">
-        <v>-3300</v>
+        <v>-11700</v>
       </c>
       <c r="I24" s="3">
-        <v>-5600</v>
+        <v>-3200</v>
       </c>
       <c r="J24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-17500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-22900</v>
+        <v>-17400</v>
       </c>
       <c r="G26" s="3">
-        <v>-13900</v>
+        <v>-22700</v>
       </c>
       <c r="H26" s="3">
-        <v>-17500</v>
+        <v>-13800</v>
       </c>
       <c r="I26" s="3">
-        <v>-84900</v>
+        <v>-17300</v>
       </c>
       <c r="J26" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>-28500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-18000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-23200</v>
+        <v>-17800</v>
       </c>
       <c r="G27" s="3">
-        <v>-14900</v>
+        <v>-22900</v>
       </c>
       <c r="H27" s="3">
-        <v>-17500</v>
+        <v>-14700</v>
       </c>
       <c r="I27" s="3">
-        <v>-158000</v>
+        <v>-17300</v>
       </c>
       <c r="J27" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-86700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>-80200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5000</v>
+        <v>-9900</v>
       </c>
       <c r="F32" s="3">
-        <v>5300</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-18000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-23200</v>
+        <v>-17800</v>
       </c>
       <c r="G33" s="3">
-        <v>-14900</v>
+        <v>-22900</v>
       </c>
       <c r="H33" s="3">
-        <v>-17500</v>
+        <v>-14700</v>
       </c>
       <c r="I33" s="3">
-        <v>-158000</v>
+        <v>-17300</v>
       </c>
       <c r="J33" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-86700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>-80200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-18000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-23200</v>
+        <v>-17800</v>
       </c>
       <c r="G35" s="3">
-        <v>-14900</v>
+        <v>-22900</v>
       </c>
       <c r="H35" s="3">
-        <v>-17500</v>
+        <v>-14700</v>
       </c>
       <c r="I35" s="3">
-        <v>-158000</v>
+        <v>-17300</v>
       </c>
       <c r="J35" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-86700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>-80200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182400</v>
+        <v>242200</v>
       </c>
       <c r="E41" s="3">
-        <v>174600</v>
+        <v>180600</v>
       </c>
       <c r="F41" s="3">
-        <v>161800</v>
+        <v>172800</v>
       </c>
       <c r="G41" s="3">
-        <v>194800</v>
+        <v>160100</v>
       </c>
       <c r="H41" s="3">
-        <v>272300</v>
+        <v>192800</v>
       </c>
       <c r="I41" s="3">
-        <v>400100</v>
+        <v>269500</v>
       </c>
       <c r="J41" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K41" s="3">
         <v>94400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,34 +2097,37 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>145500</v>
+        <v>111200</v>
       </c>
       <c r="E42" s="3">
-        <v>148000</v>
+        <v>144000</v>
       </c>
       <c r="F42" s="3">
-        <v>126400</v>
+        <v>146500</v>
       </c>
       <c r="G42" s="3">
-        <v>73300</v>
+        <v>125100</v>
       </c>
       <c r="H42" s="3">
-        <v>54600</v>
+        <v>72600</v>
       </c>
       <c r="I42" s="3">
-        <v>7200</v>
+        <v>54000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+        <v>7100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74000</v>
+        <v>96900</v>
       </c>
       <c r="E43" s="3">
-        <v>69900</v>
+        <v>73200</v>
       </c>
       <c r="F43" s="3">
-        <v>103100</v>
+        <v>69200</v>
       </c>
       <c r="G43" s="3">
-        <v>117100</v>
+        <v>102000</v>
       </c>
       <c r="H43" s="3">
-        <v>84300</v>
+        <v>115900</v>
       </c>
       <c r="I43" s="3">
-        <v>71300</v>
+        <v>83400</v>
       </c>
       <c r="J43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K43" s="3">
         <v>65800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,35 +2191,38 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65200</v>
+        <v>61600</v>
       </c>
       <c r="E44" s="3">
-        <v>96700</v>
+        <v>64500</v>
       </c>
       <c r="F44" s="3">
-        <v>95900</v>
+        <v>95700</v>
       </c>
       <c r="G44" s="3">
-        <v>68800</v>
+        <v>94900</v>
       </c>
       <c r="H44" s="3">
-        <v>71900</v>
+        <v>68100</v>
       </c>
       <c r="I44" s="3">
-        <v>50600</v>
+        <v>71100</v>
       </c>
       <c r="J44" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K44" s="3">
         <v>45600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99200</v>
+        <v>41100</v>
       </c>
       <c r="E45" s="3">
-        <v>100100</v>
+        <v>98100</v>
       </c>
       <c r="F45" s="3">
-        <v>111600</v>
+        <v>99100</v>
       </c>
       <c r="G45" s="3">
-        <v>142200</v>
+        <v>110400</v>
       </c>
       <c r="H45" s="3">
-        <v>118200</v>
+        <v>140700</v>
       </c>
       <c r="I45" s="3">
-        <v>80800</v>
+        <v>117000</v>
       </c>
       <c r="J45" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K45" s="3">
         <v>63100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>566300</v>
+        <v>553000</v>
       </c>
       <c r="E46" s="3">
-        <v>589400</v>
+        <v>560500</v>
       </c>
       <c r="F46" s="3">
-        <v>598800</v>
+        <v>583400</v>
       </c>
       <c r="G46" s="3">
-        <v>596100</v>
+        <v>592600</v>
       </c>
       <c r="H46" s="3">
-        <v>601300</v>
+        <v>590000</v>
       </c>
       <c r="I46" s="3">
-        <v>609900</v>
+        <v>595100</v>
       </c>
       <c r="J46" s="3">
+        <v>603700</v>
+      </c>
+      <c r="K46" s="3">
         <v>268800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,35 +2332,38 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33000</v>
+        <v>31200</v>
       </c>
       <c r="E47" s="3">
-        <v>33700</v>
+        <v>32600</v>
       </c>
       <c r="F47" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="G47" s="3">
-        <v>34700</v>
+        <v>33800</v>
       </c>
       <c r="H47" s="3">
-        <v>29500</v>
+        <v>34300</v>
       </c>
       <c r="I47" s="3">
-        <v>16400</v>
+        <v>29200</v>
       </c>
       <c r="J47" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K47" s="3">
         <v>15100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="E48" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="F48" s="3">
-        <v>14700</v>
+        <v>16400</v>
       </c>
       <c r="G48" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="H48" s="3">
-        <v>12300</v>
+        <v>14800</v>
       </c>
       <c r="I48" s="3">
-        <v>11200</v>
+        <v>12200</v>
       </c>
       <c r="J48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>381000</v>
+        <v>77400</v>
       </c>
       <c r="E49" s="3">
-        <v>392600</v>
+        <v>377100</v>
       </c>
       <c r="F49" s="3">
-        <v>401900</v>
+        <v>388600</v>
       </c>
       <c r="G49" s="3">
-        <v>413500</v>
+        <v>397800</v>
       </c>
       <c r="H49" s="3">
-        <v>425600</v>
+        <v>409300</v>
       </c>
       <c r="I49" s="3">
-        <v>437300</v>
+        <v>421200</v>
       </c>
       <c r="J49" s="3">
+        <v>432800</v>
+      </c>
+      <c r="K49" s="3">
         <v>444300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14800</v>
+        <v>39200</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>14700</v>
       </c>
       <c r="F52" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>14900</v>
       </c>
       <c r="H52" s="3">
-        <v>20800</v>
+        <v>18100</v>
       </c>
       <c r="I52" s="3">
-        <v>14100</v>
+        <v>20500</v>
       </c>
       <c r="J52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1012100</v>
+        <v>717700</v>
       </c>
       <c r="E54" s="3">
-        <v>1045400</v>
+        <v>1001700</v>
       </c>
       <c r="F54" s="3">
-        <v>1064600</v>
+        <v>1034700</v>
       </c>
       <c r="G54" s="3">
-        <v>1077500</v>
+        <v>1053700</v>
       </c>
       <c r="H54" s="3">
-        <v>1089400</v>
+        <v>1066500</v>
       </c>
       <c r="I54" s="3">
-        <v>1088900</v>
+        <v>1078300</v>
       </c>
       <c r="J54" s="3">
+        <v>1077800</v>
+      </c>
+      <c r="K54" s="3">
         <v>739900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8200</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>9600</v>
+        <v>8100</v>
       </c>
       <c r="F57" s="3">
-        <v>10800</v>
+        <v>9500</v>
       </c>
       <c r="G57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
-        <v>7100</v>
-      </c>
       <c r="I57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,35 +2793,38 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10900</v>
+        <v>17600</v>
       </c>
       <c r="E58" s="3">
-        <v>21000</v>
+        <v>10800</v>
       </c>
       <c r="F58" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="G58" s="3">
-        <v>13600</v>
+        <v>21900</v>
       </c>
       <c r="H58" s="3">
-        <v>20400</v>
+        <v>13500</v>
       </c>
       <c r="I58" s="3">
-        <v>30000</v>
+        <v>20200</v>
       </c>
       <c r="J58" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K58" s="3">
         <v>63500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103400</v>
+        <v>117300</v>
       </c>
       <c r="E59" s="3">
-        <v>118600</v>
+        <v>102400</v>
       </c>
       <c r="F59" s="3">
-        <v>110400</v>
+        <v>117300</v>
       </c>
       <c r="G59" s="3">
-        <v>98900</v>
+        <v>109300</v>
       </c>
       <c r="H59" s="3">
-        <v>83800</v>
+        <v>97800</v>
       </c>
       <c r="I59" s="3">
-        <v>78500</v>
+        <v>83000</v>
       </c>
       <c r="J59" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K59" s="3">
         <v>85300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>122400</v>
+        <v>145300</v>
       </c>
       <c r="E60" s="3">
-        <v>149200</v>
+        <v>121200</v>
       </c>
       <c r="F60" s="3">
-        <v>143300</v>
+        <v>147700</v>
       </c>
       <c r="G60" s="3">
-        <v>118400</v>
+        <v>141900</v>
       </c>
       <c r="H60" s="3">
-        <v>111300</v>
+        <v>117200</v>
       </c>
       <c r="I60" s="3">
-        <v>115500</v>
+        <v>110100</v>
       </c>
       <c r="J60" s="3">
+        <v>114300</v>
+      </c>
+      <c r="K60" s="3">
         <v>155100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,17 +2955,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31800</v>
+        <v>20600</v>
       </c>
       <c r="E62" s="3">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="F62" s="3">
-        <v>35300</v>
+        <v>33200</v>
       </c>
       <c r="G62" s="3">
-        <v>37000</v>
+        <v>34900</v>
       </c>
       <c r="H62" s="3">
-        <v>47000</v>
+        <v>36600</v>
       </c>
       <c r="I62" s="3">
-        <v>53100</v>
+        <v>46600</v>
       </c>
       <c r="J62" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>154300</v>
+        <v>165900</v>
       </c>
       <c r="E66" s="3">
-        <v>182700</v>
+        <v>152700</v>
       </c>
       <c r="F66" s="3">
-        <v>178600</v>
+        <v>180800</v>
       </c>
       <c r="G66" s="3">
-        <v>155400</v>
+        <v>176800</v>
       </c>
       <c r="H66" s="3">
-        <v>159100</v>
+        <v>153800</v>
       </c>
       <c r="I66" s="3">
-        <v>170700</v>
+        <v>157500</v>
       </c>
       <c r="J66" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K66" s="3">
         <v>204600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3356,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1370500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3423,16 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-1280300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -3267,21 +3440,21 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
-        <v>-939100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-929500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-835500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>857800</v>
+        <v>551800</v>
       </c>
       <c r="E76" s="3">
-        <v>862700</v>
+        <v>849000</v>
       </c>
       <c r="F76" s="3">
-        <v>886000</v>
+        <v>853800</v>
       </c>
       <c r="G76" s="3">
-        <v>922100</v>
+        <v>876900</v>
       </c>
       <c r="H76" s="3">
-        <v>930300</v>
+        <v>912700</v>
       </c>
       <c r="I76" s="3">
-        <v>918300</v>
+        <v>920700</v>
       </c>
       <c r="J76" s="3">
+        <v>908900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-835200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-18000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-23200</v>
+        <v>-17800</v>
       </c>
       <c r="G81" s="3">
-        <v>-14900</v>
+        <v>-22900</v>
       </c>
       <c r="H81" s="3">
-        <v>-17500</v>
+        <v>-14700</v>
       </c>
       <c r="I81" s="3">
-        <v>-158000</v>
+        <v>-17300</v>
       </c>
       <c r="J81" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-86700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>-80200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +3825,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>53700</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4105,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-146200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4173,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4312,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-96300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4566,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>328800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4368,31 +4613,34 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4412,31 +4660,34 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>84500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -4454,6 +4705,9 @@
         <v>4</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>RERE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>423800</v>
+        <v>408300</v>
       </c>
       <c r="E8" s="3">
-        <v>360500</v>
+        <v>395700</v>
       </c>
       <c r="F8" s="3">
-        <v>305000</v>
+        <v>410700</v>
       </c>
       <c r="G8" s="3">
-        <v>313700</v>
+        <v>349400</v>
       </c>
       <c r="H8" s="3">
-        <v>346200</v>
+        <v>295600</v>
       </c>
       <c r="I8" s="3">
+        <v>304000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>335600</v>
+      </c>
+      <c r="K8" s="3">
         <v>278900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>480800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>217500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>228900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>195400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>176200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>108400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>376100</v>
+        <v>357500</v>
       </c>
       <c r="E9" s="3">
-        <v>314100</v>
+        <v>347000</v>
       </c>
       <c r="F9" s="3">
-        <v>274200</v>
+        <v>364500</v>
       </c>
       <c r="G9" s="3">
-        <v>275200</v>
+        <v>304400</v>
       </c>
       <c r="H9" s="3">
-        <v>297200</v>
+        <v>265800</v>
       </c>
       <c r="I9" s="3">
+        <v>266800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>288000</v>
+      </c>
+      <c r="K9" s="3">
         <v>244100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>425000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>189400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>198600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>169900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>153100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>103100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>590400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>47700</v>
+        <v>50900</v>
       </c>
       <c r="E10" s="3">
-        <v>46400</v>
+        <v>48700</v>
       </c>
       <c r="F10" s="3">
-        <v>30800</v>
+        <v>46300</v>
       </c>
       <c r="G10" s="3">
-        <v>38400</v>
+        <v>45000</v>
       </c>
       <c r="H10" s="3">
-        <v>49100</v>
+        <v>29900</v>
       </c>
       <c r="I10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K10" s="3">
         <v>34800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>28100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>30300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="E12" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="F12" s="3">
-        <v>8300</v>
+        <v>7500</v>
       </c>
       <c r="G12" s="3">
-        <v>8800</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>19100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>22000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,32 +1022,38 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>260400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>252400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,47 +1066,53 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>10700</v>
       </c>
       <c r="E15" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>13200</v>
+        <v>10900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>12200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12800</v>
       </c>
       <c r="I15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>13000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>739700</v>
+        <v>416700</v>
       </c>
       <c r="E17" s="3">
-        <v>376100</v>
+        <v>405000</v>
       </c>
       <c r="F17" s="3">
-        <v>328900</v>
+        <v>717000</v>
       </c>
       <c r="G17" s="3">
-        <v>332800</v>
+        <v>364600</v>
       </c>
       <c r="H17" s="3">
-        <v>366500</v>
+        <v>318800</v>
       </c>
       <c r="I17" s="3">
+        <v>322600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>355200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>568700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>233500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>139500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-316000</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-15600</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-23900</v>
+        <v>-306300</v>
       </c>
       <c r="G18" s="3">
-        <v>-19200</v>
+        <v>-15200</v>
       </c>
       <c r="H18" s="3">
-        <v>-20200</v>
+        <v>-23200</v>
       </c>
       <c r="I18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-88000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-31100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4900</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>9600</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,179 +1349,203 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>28000</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-15100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1900</v>
       </c>
       <c r="Q22" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S22" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-315900</v>
+        <v>-8200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="F23" s="3">
-        <v>-19300</v>
+        <v>-306200</v>
       </c>
       <c r="G23" s="3">
-        <v>-24500</v>
+        <v>-5800</v>
       </c>
       <c r="H23" s="3">
-        <v>-25400</v>
+        <v>-18700</v>
       </c>
       <c r="I23" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-89600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-17300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-30400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>-40800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10200</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-11700</v>
-      </c>
       <c r="I24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-4600</v>
       </c>
       <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-305800</v>
+        <v>-6600</v>
       </c>
       <c r="E26" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F26" s="3">
-        <v>-17400</v>
+        <v>-296400</v>
       </c>
       <c r="G26" s="3">
-        <v>-22700</v>
+        <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>-13800</v>
+        <v>-16800</v>
       </c>
       <c r="I26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-84100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-28500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-305800</v>
+        <v>-8900</v>
       </c>
       <c r="E27" s="3">
-        <v>-4300</v>
+        <v>-6900</v>
       </c>
       <c r="F27" s="3">
-        <v>-17800</v>
+        <v>-296400</v>
       </c>
       <c r="G27" s="3">
-        <v>-22900</v>
+        <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>-14700</v>
+        <v>-17300</v>
       </c>
       <c r="I27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-156300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-86700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-80200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>-9600</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-305800</v>
+        <v>-8900</v>
       </c>
       <c r="E33" s="3">
-        <v>-4300</v>
+        <v>-6900</v>
       </c>
       <c r="F33" s="3">
-        <v>-17800</v>
+        <v>-296400</v>
       </c>
       <c r="G33" s="3">
-        <v>-22900</v>
+        <v>-4100</v>
       </c>
       <c r="H33" s="3">
-        <v>-14700</v>
+        <v>-17300</v>
       </c>
       <c r="I33" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-156300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-86700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-80200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-305800</v>
+        <v>-8900</v>
       </c>
       <c r="E35" s="3">
-        <v>-4300</v>
+        <v>-6900</v>
       </c>
       <c r="F35" s="3">
-        <v>-17800</v>
+        <v>-296400</v>
       </c>
       <c r="G35" s="3">
-        <v>-22900</v>
+        <v>-4100</v>
       </c>
       <c r="H35" s="3">
-        <v>-14700</v>
+        <v>-17300</v>
       </c>
       <c r="I35" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-156300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-86700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-80200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2225,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>242200</v>
+        <v>205700</v>
       </c>
       <c r="E41" s="3">
-        <v>180600</v>
+        <v>215700</v>
       </c>
       <c r="F41" s="3">
-        <v>172800</v>
+        <v>234700</v>
       </c>
       <c r="G41" s="3">
-        <v>160100</v>
+        <v>175000</v>
       </c>
       <c r="H41" s="3">
-        <v>192800</v>
+        <v>167500</v>
       </c>
       <c r="I41" s="3">
+        <v>155200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K41" s="3">
         <v>269500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>396000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>94400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2100,40 +2274,46 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111200</v>
+        <v>82500</v>
       </c>
       <c r="E42" s="3">
-        <v>144000</v>
+        <v>88800</v>
       </c>
       <c r="F42" s="3">
-        <v>146500</v>
+        <v>107800</v>
       </c>
       <c r="G42" s="3">
-        <v>125100</v>
+        <v>139600</v>
       </c>
       <c r="H42" s="3">
-        <v>72600</v>
+        <v>142000</v>
       </c>
       <c r="I42" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K42" s="3">
         <v>54000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7100</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2147,41 +2327,47 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>96900</v>
+        <v>56400</v>
       </c>
       <c r="E43" s="3">
-        <v>73200</v>
+        <v>54500</v>
       </c>
       <c r="F43" s="3">
-        <v>69200</v>
+        <v>94000</v>
       </c>
       <c r="G43" s="3">
-        <v>102000</v>
+        <v>70900</v>
       </c>
       <c r="H43" s="3">
-        <v>115900</v>
+        <v>67000</v>
       </c>
       <c r="I43" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K43" s="3">
         <v>83400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>70600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>65800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2194,41 +2380,47 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61600</v>
+        <v>101300</v>
       </c>
       <c r="E44" s="3">
-        <v>64500</v>
+        <v>80400</v>
       </c>
       <c r="F44" s="3">
-        <v>95700</v>
+        <v>59700</v>
       </c>
       <c r="G44" s="3">
-        <v>94900</v>
+        <v>62600</v>
       </c>
       <c r="H44" s="3">
-        <v>68100</v>
+        <v>92800</v>
       </c>
       <c r="I44" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K44" s="3">
         <v>71100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>50100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>45600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,41 +2433,47 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41100</v>
+        <v>93400</v>
       </c>
       <c r="E45" s="3">
-        <v>98100</v>
+        <v>83800</v>
       </c>
       <c r="F45" s="3">
-        <v>99100</v>
+        <v>39800</v>
       </c>
       <c r="G45" s="3">
-        <v>110400</v>
+        <v>95100</v>
       </c>
       <c r="H45" s="3">
-        <v>140700</v>
+        <v>96100</v>
       </c>
       <c r="I45" s="3">
+        <v>107100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K45" s="3">
         <v>117000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>79900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>63100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,41 +2486,47 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>553000</v>
+        <v>539400</v>
       </c>
       <c r="E46" s="3">
-        <v>560500</v>
+        <v>523100</v>
       </c>
       <c r="F46" s="3">
-        <v>583400</v>
+        <v>536000</v>
       </c>
       <c r="G46" s="3">
-        <v>592600</v>
+        <v>543200</v>
       </c>
       <c r="H46" s="3">
-        <v>590000</v>
+        <v>565400</v>
       </c>
       <c r="I46" s="3">
+        <v>574400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>571900</v>
+      </c>
+      <c r="K46" s="3">
         <v>595100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>603700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>268800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2335,41 +2539,47 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31200</v>
+        <v>66900</v>
       </c>
       <c r="E47" s="3">
-        <v>32600</v>
+        <v>68000</v>
       </c>
       <c r="F47" s="3">
+        <v>30300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>31600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J47" s="3">
         <v>33300</v>
       </c>
-      <c r="G47" s="3">
-        <v>33800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>29200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>15100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,41 +2592,47 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="E48" s="3">
-        <v>16800</v>
+        <v>15400</v>
       </c>
       <c r="F48" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="G48" s="3">
-        <v>14500</v>
+        <v>16300</v>
       </c>
       <c r="H48" s="3">
-        <v>14800</v>
+        <v>15900</v>
       </c>
       <c r="I48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K48" s="3">
         <v>12200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2429,41 +2645,47 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77400</v>
+        <v>55700</v>
       </c>
       <c r="E49" s="3">
-        <v>377100</v>
+        <v>65400</v>
       </c>
       <c r="F49" s="3">
-        <v>388600</v>
+        <v>75000</v>
       </c>
       <c r="G49" s="3">
-        <v>397800</v>
+        <v>365500</v>
       </c>
       <c r="H49" s="3">
-        <v>409300</v>
+        <v>376600</v>
       </c>
       <c r="I49" s="3">
+        <v>385500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>396700</v>
+      </c>
+      <c r="K49" s="3">
         <v>421200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>432800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>444300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2804,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39200</v>
+        <v>11400</v>
       </c>
       <c r="E52" s="3">
-        <v>14700</v>
+        <v>12100</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="G52" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="H52" s="3">
-        <v>18100</v>
+        <v>12600</v>
       </c>
       <c r="I52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2910,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>717700</v>
+        <v>690000</v>
       </c>
       <c r="E54" s="3">
-        <v>1001700</v>
+        <v>684000</v>
       </c>
       <c r="F54" s="3">
-        <v>1034700</v>
+        <v>695600</v>
       </c>
       <c r="G54" s="3">
-        <v>1053700</v>
+        <v>970900</v>
       </c>
       <c r="H54" s="3">
-        <v>1066500</v>
+        <v>1002800</v>
       </c>
       <c r="I54" s="3">
+        <v>1021300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1033700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1078300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1077800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>739900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +3009,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>8100</v>
+        <v>11600</v>
       </c>
       <c r="F57" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
-        <v>10700</v>
+        <v>7800</v>
       </c>
       <c r="H57" s="3">
-        <v>5900</v>
+        <v>9200</v>
       </c>
       <c r="I57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2796,41 +3058,47 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17600</v>
+        <v>38400</v>
       </c>
       <c r="E58" s="3">
-        <v>10800</v>
+        <v>43900</v>
       </c>
       <c r="F58" s="3">
-        <v>20800</v>
+        <v>17100</v>
       </c>
       <c r="G58" s="3">
-        <v>21900</v>
+        <v>10400</v>
       </c>
       <c r="H58" s="3">
-        <v>13500</v>
+        <v>20200</v>
       </c>
       <c r="I58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K58" s="3">
         <v>20200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>63500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2843,41 +3111,47 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>117300</v>
+        <v>106300</v>
       </c>
       <c r="E59" s="3">
-        <v>102400</v>
+        <v>84200</v>
       </c>
       <c r="F59" s="3">
-        <v>117300</v>
+        <v>113700</v>
       </c>
       <c r="G59" s="3">
-        <v>109300</v>
+        <v>99200</v>
       </c>
       <c r="H59" s="3">
-        <v>97800</v>
+        <v>113700</v>
       </c>
       <c r="I59" s="3">
+        <v>105900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K59" s="3">
         <v>83000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>77700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>85300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2890,41 +3164,47 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>145300</v>
+        <v>154400</v>
       </c>
       <c r="E60" s="3">
-        <v>121200</v>
+        <v>139800</v>
       </c>
       <c r="F60" s="3">
-        <v>147700</v>
+        <v>140800</v>
       </c>
       <c r="G60" s="3">
-        <v>141900</v>
+        <v>117500</v>
       </c>
       <c r="H60" s="3">
-        <v>117200</v>
+        <v>143100</v>
       </c>
       <c r="I60" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K60" s="3">
         <v>110100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>114300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>155100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,20 +3244,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,41 +3270,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20600</v>
+        <v>14600</v>
       </c>
       <c r="E62" s="3">
-        <v>31500</v>
+        <v>17000</v>
       </c>
       <c r="F62" s="3">
-        <v>33200</v>
+        <v>20000</v>
       </c>
       <c r="G62" s="3">
-        <v>34900</v>
+        <v>30500</v>
       </c>
       <c r="H62" s="3">
-        <v>36600</v>
+        <v>32100</v>
       </c>
       <c r="I62" s="3">
+        <v>33800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K62" s="3">
         <v>46600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>52600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3482,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165900</v>
+        <v>169000</v>
       </c>
       <c r="E66" s="3">
-        <v>152700</v>
+        <v>156800</v>
       </c>
       <c r="F66" s="3">
-        <v>180800</v>
+        <v>160800</v>
       </c>
       <c r="G66" s="3">
-        <v>176800</v>
+        <v>148000</v>
       </c>
       <c r="H66" s="3">
-        <v>153800</v>
+        <v>175200</v>
       </c>
       <c r="I66" s="3">
+        <v>171300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K66" s="3">
         <v>157500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>168900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>204600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1370500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3768,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1280300</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="F72" s="3">
+        <v>-1241000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
-        <v>-929500</v>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="J72" s="3">
+        <v>-900900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-835500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3980,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>551800</v>
+        <v>521000</v>
       </c>
       <c r="E76" s="3">
-        <v>849000</v>
+        <v>527200</v>
       </c>
       <c r="F76" s="3">
-        <v>853800</v>
+        <v>534800</v>
       </c>
       <c r="G76" s="3">
-        <v>876900</v>
+        <v>822900</v>
       </c>
       <c r="H76" s="3">
-        <v>912700</v>
+        <v>827600</v>
       </c>
       <c r="I76" s="3">
+        <v>849900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>884600</v>
+      </c>
+      <c r="K76" s="3">
         <v>920700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>908900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-835200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3661,8 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-305800</v>
+        <v>-8900</v>
       </c>
       <c r="E81" s="3">
-        <v>-4300</v>
+        <v>-6900</v>
       </c>
       <c r="F81" s="3">
-        <v>-17800</v>
+        <v>-296400</v>
       </c>
       <c r="G81" s="3">
-        <v>-22900</v>
+        <v>-4100</v>
       </c>
       <c r="H81" s="3">
-        <v>-14700</v>
+        <v>-17300</v>
       </c>
       <c r="I81" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-156300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-86700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-80200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3852,11 +4250,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4134,11 +4568,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4341,11 +4801,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4595,11 +5087,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4642,11 +5140,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4689,11 +5193,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
@@ -4708,6 +5212,12 @@
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RERE_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>408300</v>
+        <v>409200</v>
       </c>
       <c r="E8" s="3">
-        <v>395700</v>
+        <v>396500</v>
       </c>
       <c r="F8" s="3">
-        <v>410700</v>
+        <v>411600</v>
       </c>
       <c r="G8" s="3">
-        <v>349400</v>
+        <v>350200</v>
       </c>
       <c r="H8" s="3">
-        <v>295600</v>
+        <v>296300</v>
       </c>
       <c r="I8" s="3">
-        <v>304000</v>
+        <v>304700</v>
       </c>
       <c r="J8" s="3">
-        <v>335600</v>
+        <v>336300</v>
       </c>
       <c r="K8" s="3">
         <v>278900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>357500</v>
+        <v>358300</v>
       </c>
       <c r="E9" s="3">
-        <v>347000</v>
+        <v>347800</v>
       </c>
       <c r="F9" s="3">
-        <v>364500</v>
+        <v>365300</v>
       </c>
       <c r="G9" s="3">
-        <v>304400</v>
+        <v>305100</v>
       </c>
       <c r="H9" s="3">
-        <v>265800</v>
+        <v>266400</v>
       </c>
       <c r="I9" s="3">
-        <v>266800</v>
+        <v>267400</v>
       </c>
       <c r="J9" s="3">
-        <v>288000</v>
+        <v>288700</v>
       </c>
       <c r="K9" s="3">
         <v>244100</v>
@@ -854,25 +854,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50900</v>
+        <v>51000</v>
       </c>
       <c r="E10" s="3">
-        <v>48700</v>
+        <v>48800</v>
       </c>
       <c r="F10" s="3">
-        <v>46300</v>
+        <v>46400</v>
       </c>
       <c r="G10" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="H10" s="3">
         <v>29900</v>
       </c>
       <c r="I10" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="J10" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="K10" s="3">
         <v>34800</v>
@@ -928,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E12" s="3">
         <v>6500</v>
@@ -943,10 +943,10 @@
         <v>8000</v>
       </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J12" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K12" s="3">
         <v>9000</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>252400</v>
+        <v>253000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E15" s="3">
         <v>10900</v>
@@ -1102,7 +1102,7 @@
         <v>12800</v>
       </c>
       <c r="I15" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>416700</v>
+        <v>417600</v>
       </c>
       <c r="E17" s="3">
-        <v>405000</v>
+        <v>405900</v>
       </c>
       <c r="F17" s="3">
-        <v>717000</v>
+        <v>718600</v>
       </c>
       <c r="G17" s="3">
-        <v>364600</v>
+        <v>365400</v>
       </c>
       <c r="H17" s="3">
-        <v>318800</v>
+        <v>319500</v>
       </c>
       <c r="I17" s="3">
-        <v>322600</v>
+        <v>323300</v>
       </c>
       <c r="J17" s="3">
-        <v>355200</v>
+        <v>356000</v>
       </c>
       <c r="K17" s="3">
         <v>300300</v>
@@ -1217,7 +1217,7 @@
         <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-306300</v>
+        <v>-306900</v>
       </c>
       <c r="G18" s="3">
         <v>-15200</v>
@@ -1229,7 +1229,7 @@
         <v>-18600</v>
       </c>
       <c r="J18" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="K18" s="3">
         <v>-21400</v>
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1450,19 +1450,19 @@
         <v>-8400</v>
       </c>
       <c r="F23" s="3">
-        <v>-306200</v>
+        <v>-306900</v>
       </c>
       <c r="G23" s="3">
         <v>-5800</v>
       </c>
       <c r="H23" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="I23" s="3">
         <v>-23800</v>
       </c>
       <c r="J23" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="K23" s="3">
         <v>-20600</v>
@@ -1503,7 +1503,7 @@
         <v>-1600</v>
       </c>
       <c r="F24" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="G24" s="3">
         <v>-1800</v>
@@ -1609,19 +1609,19 @@
         <v>-6800</v>
       </c>
       <c r="F26" s="3">
-        <v>-296400</v>
+        <v>-297000</v>
       </c>
       <c r="G26" s="3">
         <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>-16800</v>
+        <v>-16900</v>
       </c>
       <c r="I26" s="3">
         <v>-22000</v>
       </c>
       <c r="J26" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="K26" s="3">
         <v>-17300</v>
@@ -1656,22 +1656,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E27" s="3">
         <v>-6900</v>
       </c>
       <c r="F27" s="3">
-        <v>-296400</v>
+        <v>-297000</v>
       </c>
       <c r="G27" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H27" s="3">
         <v>-17300</v>
       </c>
       <c r="I27" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="J27" s="3">
         <v>-14300</v>
@@ -1974,22 +1974,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E33" s="3">
         <v>-6900</v>
       </c>
       <c r="F33" s="3">
-        <v>-296400</v>
+        <v>-297000</v>
       </c>
       <c r="G33" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H33" s="3">
         <v>-17300</v>
       </c>
       <c r="I33" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="J33" s="3">
         <v>-14300</v>
@@ -2080,22 +2080,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E35" s="3">
         <v>-6900</v>
       </c>
       <c r="F35" s="3">
-        <v>-296400</v>
+        <v>-297000</v>
       </c>
       <c r="G35" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H35" s="3">
         <v>-17300</v>
       </c>
       <c r="I35" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="J35" s="3">
         <v>-14300</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205700</v>
+        <v>206100</v>
       </c>
       <c r="E41" s="3">
-        <v>215700</v>
+        <v>216200</v>
       </c>
       <c r="F41" s="3">
-        <v>234700</v>
+        <v>235200</v>
       </c>
       <c r="G41" s="3">
-        <v>175000</v>
+        <v>175400</v>
       </c>
       <c r="H41" s="3">
-        <v>167500</v>
+        <v>167900</v>
       </c>
       <c r="I41" s="3">
-        <v>155200</v>
+        <v>155500</v>
       </c>
       <c r="J41" s="3">
-        <v>186900</v>
+        <v>187300</v>
       </c>
       <c r="K41" s="3">
         <v>269500</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>82500</v>
+        <v>82700</v>
       </c>
       <c r="E42" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="F42" s="3">
-        <v>107800</v>
+        <v>108000</v>
       </c>
       <c r="G42" s="3">
-        <v>139600</v>
+        <v>139900</v>
       </c>
       <c r="H42" s="3">
-        <v>142000</v>
+        <v>142300</v>
       </c>
       <c r="I42" s="3">
-        <v>121200</v>
+        <v>121500</v>
       </c>
       <c r="J42" s="3">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="K42" s="3">
         <v>54000</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="E43" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="F43" s="3">
-        <v>94000</v>
+        <v>94200</v>
       </c>
       <c r="G43" s="3">
-        <v>70900</v>
+        <v>71100</v>
       </c>
       <c r="H43" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="I43" s="3">
-        <v>98900</v>
+        <v>99100</v>
       </c>
       <c r="J43" s="3">
-        <v>112300</v>
+        <v>112600</v>
       </c>
       <c r="K43" s="3">
         <v>83400</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101300</v>
+        <v>101500</v>
       </c>
       <c r="E44" s="3">
-        <v>80400</v>
+        <v>80600</v>
       </c>
       <c r="F44" s="3">
-        <v>59700</v>
+        <v>59900</v>
       </c>
       <c r="G44" s="3">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="H44" s="3">
-        <v>92800</v>
+        <v>93000</v>
       </c>
       <c r="I44" s="3">
-        <v>92000</v>
+        <v>92200</v>
       </c>
       <c r="J44" s="3">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="K44" s="3">
         <v>71100</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="E45" s="3">
-        <v>83800</v>
+        <v>84000</v>
       </c>
       <c r="F45" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="G45" s="3">
-        <v>95100</v>
+        <v>95300</v>
       </c>
       <c r="H45" s="3">
-        <v>96100</v>
+        <v>96300</v>
       </c>
       <c r="I45" s="3">
-        <v>107100</v>
+        <v>107300</v>
       </c>
       <c r="J45" s="3">
-        <v>136400</v>
+        <v>136700</v>
       </c>
       <c r="K45" s="3">
         <v>117000</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>539400</v>
+        <v>540500</v>
       </c>
       <c r="E46" s="3">
-        <v>523100</v>
+        <v>524300</v>
       </c>
       <c r="F46" s="3">
-        <v>536000</v>
+        <v>537200</v>
       </c>
       <c r="G46" s="3">
-        <v>543200</v>
+        <v>544400</v>
       </c>
       <c r="H46" s="3">
-        <v>565400</v>
+        <v>566700</v>
       </c>
       <c r="I46" s="3">
-        <v>574400</v>
+        <v>575700</v>
       </c>
       <c r="J46" s="3">
-        <v>571900</v>
+        <v>573100</v>
       </c>
       <c r="K46" s="3">
         <v>595100</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="E47" s="3">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="F47" s="3">
         <v>30300</v>
       </c>
       <c r="G47" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="H47" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="I47" s="3">
         <v>32800</v>
       </c>
       <c r="J47" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="K47" s="3">
         <v>29200</v>
@@ -2610,7 +2610,7 @@
         <v>15400</v>
       </c>
       <c r="F48" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="G48" s="3">
         <v>16300</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="E49" s="3">
-        <v>65400</v>
+        <v>65500</v>
       </c>
       <c r="F49" s="3">
-        <v>75000</v>
+        <v>75200</v>
       </c>
       <c r="G49" s="3">
-        <v>365500</v>
+        <v>366300</v>
       </c>
       <c r="H49" s="3">
-        <v>376600</v>
+        <v>377500</v>
       </c>
       <c r="I49" s="3">
-        <v>385500</v>
+        <v>386400</v>
       </c>
       <c r="J49" s="3">
-        <v>396700</v>
+        <v>397600</v>
       </c>
       <c r="K49" s="3">
         <v>421200</v>
@@ -2822,10 +2822,10 @@
         <v>12100</v>
       </c>
       <c r="F52" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="G52" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="H52" s="3">
         <v>12600</v>
@@ -2834,7 +2834,7 @@
         <v>14500</v>
       </c>
       <c r="J52" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="K52" s="3">
         <v>20500</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>690000</v>
+        <v>691500</v>
       </c>
       <c r="E54" s="3">
-        <v>684000</v>
+        <v>685500</v>
       </c>
       <c r="F54" s="3">
-        <v>695600</v>
+        <v>697100</v>
       </c>
       <c r="G54" s="3">
-        <v>970900</v>
+        <v>973000</v>
       </c>
       <c r="H54" s="3">
-        <v>1002800</v>
+        <v>1005000</v>
       </c>
       <c r="I54" s="3">
-        <v>1021300</v>
+        <v>1023500</v>
       </c>
       <c r="J54" s="3">
-        <v>1033700</v>
+        <v>1036000</v>
       </c>
       <c r="K54" s="3">
         <v>1078300</v>
@@ -3020,7 +3020,7 @@
         <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="F57" s="3">
         <v>10100</v>
@@ -3032,7 +3032,7 @@
         <v>9200</v>
       </c>
       <c r="I57" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J57" s="3">
         <v>5700</v>
@@ -3070,16 +3070,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="E58" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="F58" s="3">
         <v>17100</v>
       </c>
       <c r="G58" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H58" s="3">
         <v>20200</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>106300</v>
+        <v>106500</v>
       </c>
       <c r="E59" s="3">
-        <v>84200</v>
+        <v>84400</v>
       </c>
       <c r="F59" s="3">
-        <v>113700</v>
+        <v>113900</v>
       </c>
       <c r="G59" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="H59" s="3">
-        <v>113700</v>
+        <v>114000</v>
       </c>
       <c r="I59" s="3">
-        <v>105900</v>
+        <v>106100</v>
       </c>
       <c r="J59" s="3">
-        <v>94800</v>
+        <v>95000</v>
       </c>
       <c r="K59" s="3">
         <v>83000</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>154400</v>
+        <v>154800</v>
       </c>
       <c r="E60" s="3">
-        <v>139800</v>
+        <v>140200</v>
       </c>
       <c r="F60" s="3">
-        <v>140800</v>
+        <v>141200</v>
       </c>
       <c r="G60" s="3">
-        <v>117500</v>
+        <v>117700</v>
       </c>
       <c r="H60" s="3">
-        <v>143100</v>
+        <v>143400</v>
       </c>
       <c r="I60" s="3">
-        <v>137500</v>
+        <v>137800</v>
       </c>
       <c r="J60" s="3">
-        <v>113600</v>
+        <v>113900</v>
       </c>
       <c r="K60" s="3">
         <v>110100</v>
@@ -3291,16 +3291,16 @@
         <v>20000</v>
       </c>
       <c r="G62" s="3">
-        <v>30500</v>
+        <v>30600</v>
       </c>
       <c r="H62" s="3">
-        <v>32100</v>
+        <v>32200</v>
       </c>
       <c r="I62" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="J62" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="K62" s="3">
         <v>46600</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169000</v>
+        <v>169300</v>
       </c>
       <c r="E66" s="3">
-        <v>156800</v>
+        <v>157200</v>
       </c>
       <c r="F66" s="3">
-        <v>160800</v>
+        <v>161200</v>
       </c>
       <c r="G66" s="3">
-        <v>148000</v>
+        <v>148300</v>
       </c>
       <c r="H66" s="3">
-        <v>175200</v>
+        <v>175600</v>
       </c>
       <c r="I66" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="J66" s="3">
-        <v>149100</v>
+        <v>149400</v>
       </c>
       <c r="K66" s="3">
         <v>157500</v>
@@ -3786,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>-1241000</v>
+        <v>-1243700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="3">
-        <v>-900900</v>
+        <v>-902900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>521000</v>
+        <v>522200</v>
       </c>
       <c r="E76" s="3">
-        <v>527200</v>
+        <v>528300</v>
       </c>
       <c r="F76" s="3">
-        <v>534800</v>
+        <v>536000</v>
       </c>
       <c r="G76" s="3">
-        <v>822900</v>
+        <v>824700</v>
       </c>
       <c r="H76" s="3">
-        <v>827600</v>
+        <v>829400</v>
       </c>
       <c r="I76" s="3">
-        <v>849900</v>
+        <v>851800</v>
       </c>
       <c r="J76" s="3">
-        <v>884600</v>
+        <v>886500</v>
       </c>
       <c r="K76" s="3">
         <v>920700</v>
@@ -4156,22 +4156,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E81" s="3">
         <v>-6900</v>
       </c>
       <c r="F81" s="3">
-        <v>-296400</v>
+        <v>-297000</v>
       </c>
       <c r="G81" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H81" s="3">
         <v>-17300</v>
       </c>
       <c r="I81" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="J81" s="3">
         <v>-14300</v>
